--- a/dev.bitstationary/-a/-a.xlsx
+++ b/dev.bitstationary/-a/-a.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="609">
   <si>
     <t>-</t>
   </si>
@@ -29,6 +29,9 @@
     <t>:</t>
   </si>
   <si>
+    <t>Tick</t>
+  </si>
+  <si>
     <t>//</t>
   </si>
   <si>
@@ -116,15 +119,30 @@
     <t>iceKnives32</t>
   </si>
   <si>
+    <t>Self</t>
+  </si>
+  <si>
     <t>set.packet</t>
   </si>
   <si>
+    <t>Achieve</t>
+  </si>
+  <si>
     <t>set.chain</t>
   </si>
   <si>
+    <t>Constitute</t>
+  </si>
+  <si>
     <t>set.blueprint</t>
   </si>
   <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
     <t>range.on</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
     <t>.format</t>
   </si>
   <si>
+    <t>Degree</t>
+  </si>
+  <si>
     <t>f.x</t>
   </si>
   <si>
@@ -164,6 +185,9 @@
     <t>.xyz</t>
   </si>
   <si>
+    <t>Mode</t>
+  </si>
+  <si>
     <t>recycle.it</t>
   </si>
   <si>
@@ -701,9 +725,6 @@
     <t>_random</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>_serial</t>
   </si>
   <si>
@@ -1115,9 +1136,6 @@
     <t>_tint</t>
   </si>
   <si>
-    <t>Self</t>
-  </si>
-  <si>
     <t>_alias</t>
   </si>
   <si>
@@ -1658,6 +1676,9 @@
     <t>soloH26</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>fixture</t>
   </si>
   <si>
@@ -1691,6 +1712,96 @@
     <t>indexer</t>
   </si>
   <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>Fidget</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>enormous</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>evident</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>facilitate</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>multitude</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
+    <t>advance</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>Lamp</t>
+  </si>
+  <si>
     <t>harmony</t>
   </si>
   <si>
@@ -1722,6 +1833,9 @@
   </si>
   <si>
     <t>duSky24</t>
+  </si>
+  <si>
+    <t>Instant</t>
   </si>
   <si>
     <t>shAllow38</t>
@@ -1951,9 +2065,6 @@
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1968,6 +2079,9 @@
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2234,6 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2268,12 +2383,14 @@
         <v>2</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -2298,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
@@ -2306,7 +2423,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -2322,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
@@ -2330,7 +2447,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -2346,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
@@ -2354,7 +2471,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -2370,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
@@ -2378,7 +2495,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -2394,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
@@ -2402,7 +2519,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -2418,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2426,7 +2543,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -2442,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
@@ -2450,7 +2567,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -2466,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
@@ -2474,7 +2591,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -2490,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
@@ -2498,7 +2615,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -2514,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
@@ -2522,7 +2639,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -2538,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
@@ -2546,7 +2663,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -2562,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
@@ -2570,7 +2687,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -2586,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
@@ -2594,7 +2711,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -2610,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
@@ -2618,7 +2735,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -2634,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
@@ -2642,7 +2759,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -2658,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
@@ -2666,7 +2783,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -2682,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
@@ -2690,7 +2807,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -2706,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -2714,7 +2831,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -2730,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -2738,7 +2855,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -2754,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -2762,7 +2879,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -2778,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
@@ -2786,7 +2903,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -2802,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
@@ -2810,7 +2927,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -2826,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
@@ -2834,7 +2951,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -2850,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
@@ -2858,7 +2975,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -2874,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
@@ -2882,7 +2999,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -2898,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
@@ -2906,7 +3023,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -2925,6 +3042,9 @@
       <c r="H33" s="4"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2961,18 +3081,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -2997,15 +3119,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -3021,15 +3145,17 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -3045,15 +3171,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -3075,7 +3203,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -3097,7 +3225,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -3119,7 +3247,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -3141,7 +3269,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -3163,7 +3291,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -3178,14 +3306,14 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -3200,14 +3328,14 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -3222,14 +3350,14 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -3244,14 +3372,14 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -3266,14 +3394,14 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -3288,14 +3416,14 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -3310,14 +3438,14 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -3332,14 +3460,14 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -3354,14 +3482,14 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -3376,14 +3504,14 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -3398,14 +3526,14 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -3420,14 +3548,14 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -3442,14 +3570,14 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -3464,14 +3592,14 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -3486,14 +3614,14 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -3508,14 +3636,14 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -3530,14 +3658,14 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -3559,7 +3687,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -3575,18 +3703,20 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>0</v>
@@ -3610,8 +3740,8 @@
       <c r="B35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="31" t="s">
-        <v>35</v>
+      <c r="C35" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
@@ -3619,7 +3749,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="17"/>
       <c r="G35" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="18">
         <v>1.0</v>
@@ -3634,8 +3764,8 @@
       <c r="B36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>36</v>
+      <c r="C36" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
@@ -3643,7 +3773,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="17"/>
       <c r="G36" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="18">
         <v>2.0</v>
@@ -3658,8 +3788,8 @@
       <c r="B37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>37</v>
+      <c r="C37" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
@@ -3667,7 +3797,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="17"/>
       <c r="G37" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="18">
         <v>3.0</v>
@@ -3682,8 +3812,8 @@
       <c r="B38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>38</v>
+      <c r="C38" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
@@ -3691,7 +3821,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="17"/>
       <c r="G38" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="18">
         <v>4.0</v>
@@ -3706,8 +3836,8 @@
       <c r="B39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>39</v>
+      <c r="C39" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
@@ -3715,7 +3845,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="17"/>
       <c r="G39" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="18">
         <v>5.0</v>
@@ -3730,8 +3860,8 @@
       <c r="B40" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>40</v>
+      <c r="C40" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
@@ -3739,7 +3869,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="17"/>
       <c r="G40" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="18">
         <v>6.0</v>
@@ -3754,8 +3884,8 @@
       <c r="B41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>41</v>
+      <c r="C41" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
@@ -3763,7 +3893,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="17"/>
       <c r="G41" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="18">
         <v>7.0</v>
@@ -3778,8 +3908,8 @@
       <c r="B42" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>42</v>
+      <c r="C42" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
@@ -3787,7 +3917,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="17"/>
       <c r="G42" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="18">
         <v>8.0</v>
@@ -3802,14 +3932,14 @@
       <c r="B43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="20"/>
       <c r="G43" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="18">
         <v>9.0</v>
@@ -3824,14 +3954,14 @@
       <c r="B44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="20"/>
       <c r="G44" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="18">
         <v>10.0</v>
@@ -3846,14 +3976,14 @@
       <c r="B45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="20"/>
       <c r="G45" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="18">
         <v>11.0</v>
@@ -3868,14 +3998,14 @@
       <c r="B46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="20"/>
       <c r="G46" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="18">
         <v>12.0</v>
@@ -3890,14 +4020,14 @@
       <c r="B47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="20"/>
       <c r="G47" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="18">
         <v>13.0</v>
@@ -3912,14 +4042,14 @@
       <c r="B48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="32"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="20"/>
       <c r="G48" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" s="18">
         <v>14.0</v>
@@ -3934,14 +4064,14 @@
       <c r="B49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="20"/>
       <c r="G49" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="18">
         <v>15.0</v>
@@ -3956,14 +4086,14 @@
       <c r="B50" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="20"/>
       <c r="G50" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="18">
         <v>16.0</v>
@@ -3978,14 +4108,14 @@
       <c r="B51" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="20"/>
       <c r="G51" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="18">
         <v>17.0</v>
@@ -4000,14 +4130,14 @@
       <c r="B52" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="32"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="20"/>
       <c r="G52" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="18">
         <v>18.0</v>
@@ -4022,14 +4152,14 @@
       <c r="B53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="20"/>
       <c r="G53" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="18">
         <v>19.0</v>
@@ -4044,14 +4174,14 @@
       <c r="B54" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="20"/>
       <c r="G54" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="18">
         <v>20.0</v>
@@ -4066,14 +4196,14 @@
       <c r="B55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="20"/>
       <c r="G55" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="18">
         <v>21.0</v>
@@ -4088,14 +4218,14 @@
       <c r="B56" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="32"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="20"/>
       <c r="G56" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="18">
         <v>22.0</v>
@@ -4110,14 +4240,14 @@
       <c r="B57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="20"/>
       <c r="G57" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="18">
         <v>23.0</v>
@@ -4132,14 +4262,14 @@
       <c r="B58" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="20"/>
       <c r="G58" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="18">
         <v>24.0</v>
@@ -4154,14 +4284,14 @@
       <c r="B59" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="20"/>
       <c r="G59" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="18">
         <v>25.0</v>
@@ -4176,8 +4306,8 @@
       <c r="B60" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>43</v>
+      <c r="C60" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
@@ -4185,7 +4315,7 @@
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" s="26">
         <v>26.0</v>
@@ -4201,18 +4331,20 @@
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
+      <c r="F62" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="G62" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>0</v>
@@ -4236,8 +4368,8 @@
       <c r="B64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>44</v>
+      <c r="C64" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
@@ -4245,7 +4377,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="17"/>
       <c r="G64" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="18">
         <v>1.0</v>
@@ -4260,8 +4392,8 @@
       <c r="B65" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>45</v>
+      <c r="C65" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
@@ -4269,7 +4401,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="17"/>
       <c r="G65" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="18">
         <v>2.0</v>
@@ -4284,8 +4416,8 @@
       <c r="B66" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="31" t="s">
-        <v>46</v>
+      <c r="C66" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
@@ -4293,7 +4425,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="17"/>
       <c r="G66" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" s="18">
         <v>3.0</v>
@@ -4308,14 +4440,14 @@
       <c r="B67" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="31"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="17"/>
       <c r="G67" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="18">
         <v>4.0</v>
@@ -4330,14 +4462,14 @@
       <c r="B68" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="31"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="17"/>
       <c r="G68" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="18">
         <v>5.0</v>
@@ -4352,14 +4484,14 @@
       <c r="B69" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="31"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="17"/>
       <c r="G69" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="18">
         <v>6.0</v>
@@ -4374,14 +4506,14 @@
       <c r="B70" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="31"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="17"/>
       <c r="G70" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="18">
         <v>7.0</v>
@@ -4396,14 +4528,14 @@
       <c r="B71" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="17"/>
       <c r="G71" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="18">
         <v>8.0</v>
@@ -4418,14 +4550,14 @@
       <c r="B72" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="32"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="20"/>
       <c r="G72" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="18">
         <v>9.0</v>
@@ -4440,14 +4572,14 @@
       <c r="B73" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="31"/>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="20"/>
       <c r="G73" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="18">
         <v>10.0</v>
@@ -4462,14 +4594,14 @@
       <c r="B74" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="32"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="20"/>
       <c r="G74" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="18">
         <v>11.0</v>
@@ -4484,14 +4616,14 @@
       <c r="B75" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="32"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="20"/>
       <c r="G75" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="18">
         <v>12.0</v>
@@ -4506,14 +4638,14 @@
       <c r="B76" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="32"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="20"/>
       <c r="G76" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="18">
         <v>13.0</v>
@@ -4528,14 +4660,14 @@
       <c r="B77" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="20"/>
       <c r="G77" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="18">
         <v>14.0</v>
@@ -4550,14 +4682,14 @@
       <c r="B78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="20"/>
       <c r="G78" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="18">
         <v>15.0</v>
@@ -4572,14 +4704,14 @@
       <c r="B79" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="20"/>
       <c r="G79" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="18">
         <v>16.0</v>
@@ -4594,14 +4726,14 @@
       <c r="B80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="32"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="20"/>
       <c r="G80" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" s="18">
         <v>17.0</v>
@@ -4616,14 +4748,14 @@
       <c r="B81" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="20"/>
       <c r="G81" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="18">
         <v>18.0</v>
@@ -4638,14 +4770,14 @@
       <c r="B82" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="32"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="20"/>
       <c r="G82" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" s="18">
         <v>19.0</v>
@@ -4660,14 +4792,14 @@
       <c r="B83" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="32"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="20"/>
       <c r="G83" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" s="18">
         <v>20.0</v>
@@ -4682,14 +4814,14 @@
       <c r="B84" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="32"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="20"/>
       <c r="G84" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" s="18">
         <v>21.0</v>
@@ -4704,14 +4836,14 @@
       <c r="B85" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="32"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="20"/>
       <c r="G85" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" s="18">
         <v>22.0</v>
@@ -4726,14 +4858,14 @@
       <c r="B86" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="32"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="20"/>
       <c r="G86" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" s="18">
         <v>23.0</v>
@@ -4748,14 +4880,14 @@
       <c r="B87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="32"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="20"/>
       <c r="G87" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="18">
         <v>24.0</v>
@@ -4770,14 +4902,14 @@
       <c r="B88" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="20"/>
       <c r="G88" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="18">
         <v>25.0</v>
@@ -4792,8 +4924,8 @@
       <c r="B89" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="33" t="s">
-        <v>47</v>
+      <c r="C89" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
@@ -4801,7 +4933,7 @@
       <c r="E89" s="24"/>
       <c r="F89" s="25"/>
       <c r="G89" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="26">
         <v>26.0</v>
@@ -4817,18 +4949,20 @@
         <v>0</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G91" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>0</v>
@@ -4852,8 +4986,8 @@
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>48</v>
+      <c r="C93" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
@@ -4861,7 +4995,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="17"/>
       <c r="G93" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93" s="18">
         <v>1.0</v>
@@ -4876,14 +5010,14 @@
       <c r="B94" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="31"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="17"/>
       <c r="G94" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" s="18">
         <v>2.0</v>
@@ -4898,14 +5032,14 @@
       <c r="B95" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="31"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="17"/>
       <c r="G95" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="18">
         <v>3.0</v>
@@ -4920,14 +5054,14 @@
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="31"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="17"/>
       <c r="G96" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H96" s="18">
         <v>4.0</v>
@@ -4942,14 +5076,14 @@
       <c r="B97" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="17"/>
       <c r="G97" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" s="18">
         <v>5.0</v>
@@ -4964,14 +5098,14 @@
       <c r="B98" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="31"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="17"/>
       <c r="G98" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" s="18">
         <v>6.0</v>
@@ -4986,14 +5120,14 @@
       <c r="B99" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="31"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="17"/>
       <c r="G99" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" s="18">
         <v>7.0</v>
@@ -5008,14 +5142,14 @@
       <c r="B100" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="31"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="17"/>
       <c r="G100" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H100" s="18">
         <v>8.0</v>
@@ -5030,14 +5164,14 @@
       <c r="B101" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="32"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="20"/>
       <c r="G101" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H101" s="18">
         <v>9.0</v>
@@ -5052,14 +5186,14 @@
       <c r="B102" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="32"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="20"/>
       <c r="G102" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="18">
         <v>10.0</v>
@@ -5074,14 +5208,14 @@
       <c r="B103" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="32"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="20"/>
       <c r="G103" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" s="18">
         <v>11.0</v>
@@ -5096,14 +5230,14 @@
       <c r="B104" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="32"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="20"/>
       <c r="G104" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H104" s="18">
         <v>12.0</v>
@@ -5118,14 +5252,14 @@
       <c r="B105" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="32"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="20"/>
       <c r="G105" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" s="18">
         <v>13.0</v>
@@ -5140,14 +5274,14 @@
       <c r="B106" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="32"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="20"/>
       <c r="G106" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106" s="18">
         <v>14.0</v>
@@ -5162,14 +5296,14 @@
       <c r="B107" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="32"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="20"/>
       <c r="G107" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H107" s="18">
         <v>15.0</v>
@@ -5184,14 +5318,14 @@
       <c r="B108" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="32"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="20"/>
       <c r="G108" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H108" s="18">
         <v>16.0</v>
@@ -5206,14 +5340,14 @@
       <c r="B109" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="32"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="20"/>
       <c r="G109" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" s="18">
         <v>17.0</v>
@@ -5228,14 +5362,14 @@
       <c r="B110" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="32"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="20"/>
       <c r="G110" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H110" s="18">
         <v>18.0</v>
@@ -5250,14 +5384,14 @@
       <c r="B111" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="32"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="20"/>
       <c r="G111" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" s="18">
         <v>19.0</v>
@@ -5272,14 +5406,14 @@
       <c r="B112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="32"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="20"/>
       <c r="G112" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H112" s="18">
         <v>20.0</v>
@@ -5294,14 +5428,14 @@
       <c r="B113" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="32"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="20"/>
       <c r="G113" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H113" s="18">
         <v>21.0</v>
@@ -5316,14 +5450,14 @@
       <c r="B114" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="32"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="20"/>
       <c r="G114" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H114" s="18">
         <v>22.0</v>
@@ -5338,14 +5472,14 @@
       <c r="B115" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="32"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="20"/>
       <c r="G115" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H115" s="18">
         <v>23.0</v>
@@ -5360,14 +5494,14 @@
       <c r="B116" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="32"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="20"/>
       <c r="G116" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H116" s="18">
         <v>24.0</v>
@@ -5382,14 +5516,14 @@
       <c r="B117" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="32"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="20"/>
       <c r="G117" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117" s="18">
         <v>25.0</v>
@@ -5404,8 +5538,8 @@
       <c r="B118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="33" t="s">
-        <v>49</v>
+      <c r="C118" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
@@ -5413,7 +5547,7 @@
       <c r="E118" s="24"/>
       <c r="F118" s="25"/>
       <c r="G118" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118" s="26">
         <v>26.0</v>
@@ -5489,23 +5623,23 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>50</v>
+      <c r="C4" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -5530,17 +5664,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="37" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -5556,17 +5690,17 @@
         <v>0</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="37" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -5582,17 +5716,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -5608,17 +5742,17 @@
         <v>0</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="37" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -5634,17 +5768,17 @@
         <v>0</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="37" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -5660,17 +5794,17 @@
         <v>0</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="37" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -5686,17 +5820,17 @@
         <v>0</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="37" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -5712,17 +5846,17 @@
         <v>0</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -5737,18 +5871,18 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>69</v>
+      <c r="C14" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -5763,18 +5897,18 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>71</v>
+      <c r="C15" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -5789,18 +5923,18 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>73</v>
+      <c r="C16" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -5815,18 +5949,18 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>75</v>
+      <c r="C17" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -5841,18 +5975,18 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>77</v>
+      <c r="C18" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -5867,18 +6001,18 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>79</v>
+      <c r="C19" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -5893,18 +6027,18 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>81</v>
+      <c r="C20" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -5919,18 +6053,18 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>83</v>
+      <c r="C21" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -5945,18 +6079,18 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>85</v>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -5971,18 +6105,18 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>87</v>
+      <c r="C23" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -5997,18 +6131,18 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>89</v>
+      <c r="C24" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -6023,18 +6157,18 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>91</v>
+      <c r="C25" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -6049,18 +6183,18 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>93</v>
+      <c r="C26" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -6075,18 +6209,18 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>95</v>
+      <c r="C27" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -6101,18 +6235,18 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>97</v>
+      <c r="C28" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -6127,18 +6261,18 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>99</v>
+      <c r="C29" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -6153,18 +6287,18 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>101</v>
+      <c r="C30" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -6180,17 +6314,17 @@
         <v>0</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -6215,22 +6349,22 @@
         <v>0</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>114</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>0</v>
@@ -6251,17 +6385,17 @@
         <v>0</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="18">
         <v>1.0</v>
@@ -6275,17 +6409,17 @@
         <v>0</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="20" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="18">
         <v>2.0</v>
@@ -6299,17 +6433,17 @@
         <v>0</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="18">
         <v>3.0</v>
@@ -6323,17 +6457,17 @@
         <v>0</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="20" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="18">
         <v>4.0</v>
@@ -6347,17 +6481,17 @@
         <v>0</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39" s="18">
         <v>5.0</v>
@@ -6371,17 +6505,17 @@
         <v>0</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="18">
         <v>6.0</v>
@@ -6395,17 +6529,17 @@
         <v>0</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="18">
         <v>7.0</v>
@@ -6419,17 +6553,17 @@
         <v>0</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="18">
         <v>8.0</v>
@@ -6443,17 +6577,17 @@
         <v>0</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="18">
         <v>9.0</v>
@@ -6467,17 +6601,17 @@
         <v>0</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="20" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="18">
         <v>10.0</v>
@@ -6491,17 +6625,17 @@
         <v>0</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="18">
         <v>11.0</v>
@@ -6515,17 +6649,17 @@
         <v>0</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="18">
         <v>12.0</v>
@@ -6539,17 +6673,17 @@
         <v>0</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="18">
         <v>13.0</v>
@@ -6563,17 +6697,17 @@
         <v>0</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="20" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" s="18">
         <v>14.0</v>
@@ -6587,17 +6721,17 @@
         <v>0</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="20" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="18">
         <v>15.0</v>
@@ -6611,17 +6745,17 @@
         <v>0</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="18">
         <v>16.0</v>
@@ -6635,17 +6769,17 @@
         <v>0</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="20" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="18">
         <v>17.0</v>
@@ -6659,17 +6793,17 @@
         <v>0</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="20" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="18">
         <v>18.0</v>
@@ -6683,17 +6817,17 @@
         <v>0</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="18">
         <v>19.0</v>
@@ -6707,17 +6841,17 @@
         <v>0</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="20" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="18">
         <v>20.0</v>
@@ -6731,17 +6865,17 @@
         <v>0</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55" s="18">
         <v>21.0</v>
@@ -6755,17 +6889,17 @@
         <v>0</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H56" s="18">
         <v>22.0</v>
@@ -6779,17 +6913,17 @@
         <v>0</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="20" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="18">
         <v>23.0</v>
@@ -6803,17 +6937,17 @@
         <v>0</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="18">
         <v>24.0</v>
@@ -6827,17 +6961,17 @@
         <v>0</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="18">
         <v>25.0</v>
@@ -6851,17 +6985,17 @@
         <v>0</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" s="26">
         <v>26.0</v>
@@ -6885,22 +7019,22 @@
         <v>0</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="29" t="s">
-        <v>161</v>
+        <v>168</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>0</v>
@@ -6921,17 +7055,17 @@
         <v>0</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="20" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="18">
         <v>1.0</v>
@@ -6945,17 +7079,17 @@
         <v>0</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="18">
         <v>2.0</v>
@@ -6969,17 +7103,17 @@
         <v>0</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="20" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H66" s="18">
         <v>3.0</v>
@@ -6993,17 +7127,17 @@
         <v>0</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="20" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="18">
         <v>4.0</v>
@@ -7017,17 +7151,17 @@
         <v>0</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="20" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="18">
         <v>5.0</v>
@@ -7041,17 +7175,17 @@
         <v>0</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="20" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="18">
         <v>6.0</v>
@@ -7065,17 +7199,17 @@
         <v>0</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="20" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="18">
         <v>7.0</v>
@@ -7089,17 +7223,17 @@
         <v>0</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="20" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="18">
         <v>8.0</v>
@@ -7113,17 +7247,17 @@
         <v>0</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="20" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H72" s="18">
         <v>9.0</v>
@@ -7137,17 +7271,17 @@
         <v>0</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="20" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="18">
         <v>10.0</v>
@@ -7161,17 +7295,17 @@
         <v>0</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="20" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="18">
         <v>11.0</v>
@@ -7185,17 +7319,17 @@
         <v>0</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="20" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="18">
         <v>12.0</v>
@@ -7209,17 +7343,17 @@
         <v>0</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="20" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="18">
         <v>13.0</v>
@@ -7233,17 +7367,17 @@
         <v>0</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="20" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="18">
         <v>14.0</v>
@@ -7257,17 +7391,17 @@
         <v>0</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="20" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="18">
         <v>15.0</v>
@@ -7281,17 +7415,17 @@
         <v>0</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="20" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="18">
         <v>16.0</v>
@@ -7305,17 +7439,17 @@
         <v>0</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" s="18">
         <v>17.0</v>
@@ -7329,17 +7463,17 @@
         <v>0</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="18">
         <v>18.0</v>
@@ -7353,17 +7487,17 @@
         <v>0</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" s="18">
         <v>19.0</v>
@@ -7377,17 +7511,17 @@
         <v>0</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="20" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" s="18">
         <v>20.0</v>
@@ -7401,17 +7535,17 @@
         <v>0</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="20" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" s="18">
         <v>21.0</v>
@@ -7425,17 +7559,17 @@
         <v>0</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="20" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" s="18">
         <v>22.0</v>
@@ -7449,17 +7583,17 @@
         <v>0</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="20" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" s="18">
         <v>23.0</v>
@@ -7473,17 +7607,17 @@
         <v>0</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="18">
         <v>24.0</v>
@@ -7497,17 +7631,17 @@
         <v>0</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="18">
         <v>25.0</v>
@@ -7521,17 +7655,17 @@
         <v>0</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="25" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="26">
         <v>26.0</v>
@@ -7555,22 +7689,22 @@
         <v>0</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>216</v>
+        <v>223</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>0</v>
@@ -7591,17 +7725,17 @@
         <v>0</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="20" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93" s="18">
         <v>1.0</v>
@@ -7615,17 +7749,17 @@
         <v>0</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" s="18">
         <v>2.0</v>
@@ -7639,17 +7773,17 @@
         <v>0</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="20" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="18">
         <v>3.0</v>
@@ -7663,17 +7797,17 @@
         <v>0</v>
       </c>
       <c r="C96" s="41" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="20" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H96" s="18">
         <v>4.0</v>
@@ -7687,17 +7821,17 @@
         <v>0</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="20" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" s="18">
         <v>5.0</v>
@@ -7711,17 +7845,17 @@
         <v>0</v>
       </c>
       <c r="C98" s="41" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="20" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" s="18">
         <v>6.0</v>
@@ -7735,17 +7869,17 @@
         <v>0</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="20" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" s="18">
         <v>7.0</v>
@@ -7759,17 +7893,17 @@
         <v>0</v>
       </c>
       <c r="C100" s="41" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="20" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H100" s="18">
         <v>8.0</v>
@@ -7783,17 +7917,17 @@
         <v>0</v>
       </c>
       <c r="C101" s="41" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="20" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H101" s="18">
         <v>9.0</v>
@@ -7807,17 +7941,17 @@
         <v>0</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H102" s="18">
         <v>10.0</v>
@@ -7831,17 +7965,17 @@
         <v>0</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" s="18">
         <v>11.0</v>
@@ -7855,17 +7989,17 @@
         <v>0</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H104" s="18">
         <v>12.0</v>
@@ -7879,17 +8013,17 @@
         <v>0</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" s="18">
         <v>13.0</v>
@@ -7903,17 +8037,17 @@
         <v>0</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="20" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H106" s="18">
         <v>14.0</v>
@@ -7927,17 +8061,17 @@
         <v>0</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H107" s="18">
         <v>15.0</v>
@@ -7951,17 +8085,17 @@
         <v>0</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H108" s="18">
         <v>16.0</v>
@@ -7975,17 +8109,17 @@
         <v>0</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="20" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" s="18">
         <v>17.0</v>
@@ -7999,17 +8133,17 @@
         <v>0</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="20" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H110" s="18">
         <v>18.0</v>
@@ -8023,17 +8157,17 @@
         <v>0</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" s="18">
         <v>19.0</v>
@@ -8047,17 +8181,17 @@
         <v>0</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H112" s="18">
         <v>20.0</v>
@@ -8071,17 +8205,17 @@
         <v>0</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="20" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H113" s="18">
         <v>21.0</v>
@@ -8095,17 +8229,17 @@
         <v>0</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H114" s="18">
         <v>22.0</v>
@@ -8119,17 +8253,17 @@
         <v>0</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H115" s="18">
         <v>23.0</v>
@@ -8143,17 +8277,17 @@
         <v>0</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="20" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H116" s="18">
         <v>24.0</v>
@@ -8167,17 +8301,17 @@
         <v>0</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="20" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117" s="18">
         <v>25.0</v>
@@ -8191,17 +8325,17 @@
         <v>0</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="25" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118" s="26">
         <v>26.0</v>
@@ -8225,22 +8359,22 @@
         <v>0</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>271</v>
+        <v>277</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>278</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>0</v>
@@ -8261,17 +8395,17 @@
         <v>0</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="20" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" s="18">
         <v>1.0</v>
@@ -8285,17 +8419,17 @@
         <v>0</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="20" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H123" s="18">
         <v>2.0</v>
@@ -8309,17 +8443,17 @@
         <v>0</v>
       </c>
       <c r="C124" s="41" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="20" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H124" s="18">
         <v>3.0</v>
@@ -8333,17 +8467,17 @@
         <v>0</v>
       </c>
       <c r="C125" s="41" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="20" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H125" s="18">
         <v>4.0</v>
@@ -8357,17 +8491,17 @@
         <v>0</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="20" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H126" s="18">
         <v>5.0</v>
@@ -8381,17 +8515,17 @@
         <v>0</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="20" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H127" s="18">
         <v>6.0</v>
@@ -8405,17 +8539,17 @@
         <v>0</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="20" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H128" s="18">
         <v>7.0</v>
@@ -8429,17 +8563,17 @@
         <v>0</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="20" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H129" s="18">
         <v>8.0</v>
@@ -8453,17 +8587,17 @@
         <v>0</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="20" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H130" s="18">
         <v>9.0</v>
@@ -8477,17 +8611,17 @@
         <v>0</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="20" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G131" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H131" s="18">
         <v>10.0</v>
@@ -8501,17 +8635,17 @@
         <v>0</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H132" s="18">
         <v>11.0</v>
@@ -8525,17 +8659,17 @@
         <v>0</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="20" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H133" s="18">
         <v>12.0</v>
@@ -8549,17 +8683,17 @@
         <v>0</v>
       </c>
       <c r="C134" s="41" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="20" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H134" s="18">
         <v>13.0</v>
@@ -8573,17 +8707,17 @@
         <v>0</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="20" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H135" s="18">
         <v>14.0</v>
@@ -8597,17 +8731,17 @@
         <v>0</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="20" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H136" s="18">
         <v>15.0</v>
@@ -8621,17 +8755,17 @@
         <v>0</v>
       </c>
       <c r="C137" s="41" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="20" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H137" s="18">
         <v>16.0</v>
@@ -8645,17 +8779,17 @@
         <v>0</v>
       </c>
       <c r="C138" s="41" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="20" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H138" s="18">
         <v>17.0</v>
@@ -8669,17 +8803,17 @@
         <v>0</v>
       </c>
       <c r="C139" s="41" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="20" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G139" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H139" s="18">
         <v>18.0</v>
@@ -8693,17 +8827,17 @@
         <v>0</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="20" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H140" s="18">
         <v>19.0</v>
@@ -8717,17 +8851,17 @@
         <v>0</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="20" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G141" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H141" s="18">
         <v>20.0</v>
@@ -8741,17 +8875,17 @@
         <v>0</v>
       </c>
       <c r="C142" s="41" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H142" s="18">
         <v>21.0</v>
@@ -8765,17 +8899,17 @@
         <v>0</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="20" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H143" s="18">
         <v>22.0</v>
@@ -8789,17 +8923,17 @@
         <v>0</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="20" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H144" s="18">
         <v>23.0</v>
@@ -8813,17 +8947,17 @@
         <v>0</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="20" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G145" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H145" s="18">
         <v>24.0</v>
@@ -8837,17 +8971,17 @@
         <v>0</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="20" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H146" s="18">
         <v>25.0</v>
@@ -8861,17 +8995,17 @@
         <v>0</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="25" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H147" s="26">
         <v>26.0</v>
@@ -8895,22 +9029,22 @@
         <v>0</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="F149" s="29" t="s">
-        <v>326</v>
+        <v>332</v>
+      </c>
+      <c r="F149" s="34" t="s">
+        <v>333</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H149" s="40" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>0</v>
@@ -8931,17 +9065,17 @@
         <v>0</v>
       </c>
       <c r="C151" s="41" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="20" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G151" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H151" s="18">
         <v>1.0</v>
@@ -8955,17 +9089,17 @@
         <v>0</v>
       </c>
       <c r="C152" s="41" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="20" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G152" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152" s="18">
         <v>2.0</v>
@@ -8979,17 +9113,17 @@
         <v>0</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="20" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G153" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H153" s="18">
         <v>3.0</v>
@@ -9003,17 +9137,17 @@
         <v>0</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="20" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H154" s="18">
         <v>4.0</v>
@@ -9027,17 +9161,17 @@
         <v>0</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="20" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G155" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H155" s="18">
         <v>5.0</v>
@@ -9051,17 +9185,17 @@
         <v>0</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="20" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" s="18">
         <v>6.0</v>
@@ -9075,17 +9209,17 @@
         <v>0</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="20" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157" s="18">
         <v>7.0</v>
@@ -9099,17 +9233,17 @@
         <v>0</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="20" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H158" s="18">
         <v>8.0</v>
@@ -9123,17 +9257,17 @@
         <v>0</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="20" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H159" s="18">
         <v>9.0</v>
@@ -9147,17 +9281,17 @@
         <v>0</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="20" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H160" s="18">
         <v>10.0</v>
@@ -9171,17 +9305,17 @@
         <v>0</v>
       </c>
       <c r="C161" s="41" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="20" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H161" s="18">
         <v>11.0</v>
@@ -9195,17 +9329,17 @@
         <v>0</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="20" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G162" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H162" s="18">
         <v>12.0</v>
@@ -9219,17 +9353,17 @@
         <v>0</v>
       </c>
       <c r="C163" s="41" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="20" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H163" s="18">
         <v>13.0</v>
@@ -9243,17 +9377,17 @@
         <v>0</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="20" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164" s="18">
         <v>14.0</v>
@@ -9267,17 +9401,17 @@
         <v>0</v>
       </c>
       <c r="C165" s="41" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="20" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H165" s="18">
         <v>15.0</v>
@@ -9291,17 +9425,17 @@
         <v>0</v>
       </c>
       <c r="C166" s="41" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="20" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H166" s="18">
         <v>16.0</v>
@@ -9315,17 +9449,17 @@
         <v>0</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="20" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H167" s="18">
         <v>17.0</v>
@@ -9339,17 +9473,17 @@
         <v>0</v>
       </c>
       <c r="C168" s="41" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="20" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G168" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168" s="18">
         <v>18.0</v>
@@ -9363,17 +9497,17 @@
         <v>0</v>
       </c>
       <c r="C169" s="41" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="20" t="s">
-        <v>365</v>
+        <v>33</v>
       </c>
       <c r="G169" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H169" s="18">
         <v>19.0</v>
@@ -9387,17 +9521,17 @@
         <v>0</v>
       </c>
       <c r="C170" s="41" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G170" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H170" s="18">
         <v>20.0</v>
@@ -9411,17 +9545,17 @@
         <v>0</v>
       </c>
       <c r="C171" s="41" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H171" s="18">
         <v>21.0</v>
@@ -9435,17 +9569,17 @@
         <v>0</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H172" s="18">
         <v>22.0</v>
@@ -9459,17 +9593,17 @@
         <v>0</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G173" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H173" s="18">
         <v>23.0</v>
@@ -9483,17 +9617,17 @@
         <v>0</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="20" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G174" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174" s="18">
         <v>24.0</v>
@@ -9507,17 +9641,17 @@
         <v>0</v>
       </c>
       <c r="C175" s="41" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="20" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H175" s="18">
         <v>25.0</v>
@@ -9531,17 +9665,17 @@
         <v>0</v>
       </c>
       <c r="C176" s="42" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D176" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="25" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G176" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H176" s="26">
         <v>26.0</v>
@@ -9565,22 +9699,22 @@
         <v>0</v>
       </c>
       <c r="C178" s="39" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="F178" s="29" t="s">
-        <v>381</v>
+        <v>386</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>387</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H178" s="40" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>0</v>
@@ -9601,17 +9735,17 @@
         <v>0</v>
       </c>
       <c r="C180" s="41" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="20" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G180" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H180" s="18">
         <v>1.0</v>
@@ -9625,17 +9759,17 @@
         <v>0</v>
       </c>
       <c r="C181" s="41" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="20" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G181" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H181" s="18">
         <v>2.0</v>
@@ -9649,17 +9783,17 @@
         <v>0</v>
       </c>
       <c r="C182" s="41" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="20" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G182" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H182" s="18">
         <v>3.0</v>
@@ -9673,17 +9807,17 @@
         <v>0</v>
       </c>
       <c r="C183" s="41" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="20" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H183" s="18">
         <v>4.0</v>
@@ -9697,17 +9831,17 @@
         <v>0</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="20" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G184" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H184" s="18">
         <v>5.0</v>
@@ -9721,17 +9855,17 @@
         <v>0</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="20" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H185" s="18">
         <v>6.0</v>
@@ -9745,17 +9879,17 @@
         <v>0</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H186" s="18">
         <v>7.0</v>
@@ -9769,17 +9903,17 @@
         <v>0</v>
       </c>
       <c r="C187" s="41" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="20" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H187" s="18">
         <v>8.0</v>
@@ -9793,17 +9927,17 @@
         <v>0</v>
       </c>
       <c r="C188" s="41" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="20" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H188" s="18">
         <v>9.0</v>
@@ -9817,17 +9951,17 @@
         <v>0</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="20" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H189" s="18">
         <v>10.0</v>
@@ -9841,17 +9975,17 @@
         <v>0</v>
       </c>
       <c r="C190" s="41" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="20" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H190" s="18">
         <v>11.0</v>
@@ -9865,17 +9999,17 @@
         <v>0</v>
       </c>
       <c r="C191" s="41" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D191" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="20" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H191" s="18">
         <v>12.0</v>
@@ -9889,17 +10023,17 @@
         <v>0</v>
       </c>
       <c r="C192" s="41" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="20" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G192" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H192" s="18">
         <v>13.0</v>
@@ -9913,17 +10047,17 @@
         <v>0</v>
       </c>
       <c r="C193" s="41" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="20" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G193" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H193" s="18">
         <v>14.0</v>
@@ -9937,17 +10071,17 @@
         <v>0</v>
       </c>
       <c r="C194" s="41" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="20" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H194" s="18">
         <v>15.0</v>
@@ -9961,17 +10095,17 @@
         <v>0</v>
       </c>
       <c r="C195" s="41" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D195" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="20" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G195" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H195" s="18">
         <v>16.0</v>
@@ -9985,17 +10119,17 @@
         <v>0</v>
       </c>
       <c r="C196" s="41" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="20" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G196" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H196" s="18">
         <v>17.0</v>
@@ -10009,17 +10143,17 @@
         <v>0</v>
       </c>
       <c r="C197" s="41" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="20" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G197" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H197" s="18">
         <v>18.0</v>
@@ -10033,17 +10167,17 @@
         <v>0</v>
       </c>
       <c r="C198" s="41" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D198" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="20" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H198" s="18">
         <v>19.0</v>
@@ -10057,17 +10191,17 @@
         <v>0</v>
       </c>
       <c r="C199" s="41" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="20" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G199" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H199" s="18">
         <v>20.0</v>
@@ -10081,17 +10215,17 @@
         <v>0</v>
       </c>
       <c r="C200" s="41" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D200" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="20" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G200" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H200" s="18">
         <v>21.0</v>
@@ -10105,17 +10239,17 @@
         <v>0</v>
       </c>
       <c r="C201" s="41" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H201" s="18">
         <v>22.0</v>
@@ -10129,17 +10263,17 @@
         <v>0</v>
       </c>
       <c r="C202" s="41" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="20" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H202" s="18">
         <v>23.0</v>
@@ -10153,17 +10287,17 @@
         <v>0</v>
       </c>
       <c r="C203" s="41" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="20" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G203" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H203" s="18">
         <v>24.0</v>
@@ -10177,17 +10311,17 @@
         <v>0</v>
       </c>
       <c r="C204" s="41" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G204" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" s="18">
         <v>25.0</v>
@@ -10201,17 +10335,17 @@
         <v>0</v>
       </c>
       <c r="C205" s="42" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="24"/>
       <c r="F205" s="25" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H205" s="26">
         <v>26.0</v>
@@ -10235,22 +10369,22 @@
         <v>0</v>
       </c>
       <c r="C207" s="39" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="F207" s="29" t="s">
-        <v>436</v>
+        <v>441</v>
+      </c>
+      <c r="F207" s="34" t="s">
+        <v>442</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H207" s="40" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="I207" s="11" t="s">
         <v>0</v>
@@ -10271,17 +10405,17 @@
         <v>0</v>
       </c>
       <c r="C209" s="41" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="20" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H209" s="18">
         <v>1.0</v>
@@ -10295,17 +10429,17 @@
         <v>0</v>
       </c>
       <c r="C210" s="41" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G210" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H210" s="18">
         <v>2.0</v>
@@ -10319,17 +10453,17 @@
         <v>0</v>
       </c>
       <c r="C211" s="41" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="20" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H211" s="18">
         <v>3.0</v>
@@ -10343,17 +10477,17 @@
         <v>0</v>
       </c>
       <c r="C212" s="41" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="20" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G212" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H212" s="18">
         <v>4.0</v>
@@ -10367,17 +10501,17 @@
         <v>0</v>
       </c>
       <c r="C213" s="41" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D213" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="20" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G213" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H213" s="18">
         <v>5.0</v>
@@ -10391,17 +10525,17 @@
         <v>0</v>
       </c>
       <c r="C214" s="41" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="20" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H214" s="18">
         <v>6.0</v>
@@ -10415,17 +10549,17 @@
         <v>0</v>
       </c>
       <c r="C215" s="41" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="20" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G215" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H215" s="18">
         <v>7.0</v>
@@ -10439,17 +10573,17 @@
         <v>0</v>
       </c>
       <c r="C216" s="41" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D216" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="20" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G216" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H216" s="18">
         <v>8.0</v>
@@ -10463,17 +10597,17 @@
         <v>0</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="20" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H217" s="18">
         <v>9.0</v>
@@ -10487,17 +10621,17 @@
         <v>0</v>
       </c>
       <c r="C218" s="41" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="20" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G218" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H218" s="18">
         <v>10.0</v>
@@ -10511,17 +10645,17 @@
         <v>0</v>
       </c>
       <c r="C219" s="41" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="20" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G219" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H219" s="18">
         <v>11.0</v>
@@ -10535,17 +10669,17 @@
         <v>0</v>
       </c>
       <c r="C220" s="41" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="20" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H220" s="18">
         <v>12.0</v>
@@ -10559,17 +10693,17 @@
         <v>0</v>
       </c>
       <c r="C221" s="41" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="20" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G221" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H221" s="18">
         <v>13.0</v>
@@ -10583,17 +10717,17 @@
         <v>0</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="20" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G222" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H222" s="18">
         <v>14.0</v>
@@ -10607,17 +10741,17 @@
         <v>0</v>
       </c>
       <c r="C223" s="41" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="20" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G223" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H223" s="18">
         <v>15.0</v>
@@ -10631,17 +10765,17 @@
         <v>0</v>
       </c>
       <c r="C224" s="41" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="20" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G224" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H224" s="18">
         <v>16.0</v>
@@ -10655,17 +10789,17 @@
         <v>0</v>
       </c>
       <c r="C225" s="41" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="20" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G225" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H225" s="18">
         <v>17.0</v>
@@ -10679,17 +10813,17 @@
         <v>0</v>
       </c>
       <c r="C226" s="41" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="20" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G226" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H226" s="18">
         <v>18.0</v>
@@ -10703,17 +10837,17 @@
         <v>0</v>
       </c>
       <c r="C227" s="41" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="20" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G227" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H227" s="18">
         <v>19.0</v>
@@ -10727,17 +10861,17 @@
         <v>0</v>
       </c>
       <c r="C228" s="41" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="20" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G228" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H228" s="18">
         <v>20.0</v>
@@ -10751,17 +10885,17 @@
         <v>0</v>
       </c>
       <c r="C229" s="41" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="20" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G229" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H229" s="18">
         <v>21.0</v>
@@ -10775,17 +10909,17 @@
         <v>0</v>
       </c>
       <c r="C230" s="41" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="20" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G230" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H230" s="18">
         <v>22.0</v>
@@ -10799,17 +10933,17 @@
         <v>0</v>
       </c>
       <c r="C231" s="41" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="20" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H231" s="18">
         <v>23.0</v>
@@ -10823,17 +10957,17 @@
         <v>0</v>
       </c>
       <c r="C232" s="41" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="20" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G232" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H232" s="18">
         <v>24.0</v>
@@ -10847,17 +10981,17 @@
         <v>0</v>
       </c>
       <c r="C233" s="41" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="20" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G233" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H233" s="18">
         <v>25.0</v>
@@ -10871,17 +11005,17 @@
         <v>0</v>
       </c>
       <c r="C234" s="42" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="24"/>
       <c r="F234" s="25" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G234" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H234" s="26">
         <v>26.0</v>
@@ -10905,22 +11039,22 @@
         <v>0</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="F236" s="29" t="s">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="F236" s="34" t="s">
+        <v>497</v>
       </c>
       <c r="G236" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H236" s="40" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>0</v>
@@ -10941,17 +11075,17 @@
         <v>0</v>
       </c>
       <c r="C238" s="41" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="20" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H238" s="18">
         <v>1.0</v>
@@ -10965,17 +11099,17 @@
         <v>0</v>
       </c>
       <c r="C239" s="41" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="20" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G239" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H239" s="18">
         <v>2.0</v>
@@ -10989,17 +11123,17 @@
         <v>0</v>
       </c>
       <c r="C240" s="41" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="20" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G240" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H240" s="18">
         <v>3.0</v>
@@ -11013,17 +11147,17 @@
         <v>0</v>
       </c>
       <c r="C241" s="41" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="20" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G241" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H241" s="18">
         <v>4.0</v>
@@ -11037,17 +11171,17 @@
         <v>0</v>
       </c>
       <c r="C242" s="41" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D242" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="20" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G242" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H242" s="18">
         <v>5.0</v>
@@ -11061,17 +11195,17 @@
         <v>0</v>
       </c>
       <c r="C243" s="41" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D243" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G243" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H243" s="18">
         <v>6.0</v>
@@ -11085,17 +11219,17 @@
         <v>0</v>
       </c>
       <c r="C244" s="41" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="20" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G244" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H244" s="18">
         <v>7.0</v>
@@ -11109,17 +11243,17 @@
         <v>0</v>
       </c>
       <c r="C245" s="41" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D245" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="20" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G245" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H245" s="18">
         <v>8.0</v>
@@ -11133,17 +11267,17 @@
         <v>0</v>
       </c>
       <c r="C246" s="41" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D246" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="20" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G246" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H246" s="18">
         <v>9.0</v>
@@ -11157,17 +11291,17 @@
         <v>0</v>
       </c>
       <c r="C247" s="41" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D247" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="20" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G247" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H247" s="18">
         <v>10.0</v>
@@ -11181,17 +11315,17 @@
         <v>0</v>
       </c>
       <c r="C248" s="41" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D248" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="20" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G248" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H248" s="18">
         <v>11.0</v>
@@ -11205,17 +11339,17 @@
         <v>0</v>
       </c>
       <c r="C249" s="41" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D249" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="20" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G249" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H249" s="18">
         <v>12.0</v>
@@ -11229,17 +11363,17 @@
         <v>0</v>
       </c>
       <c r="C250" s="41" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D250" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="20" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G250" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H250" s="18">
         <v>13.0</v>
@@ -11253,17 +11387,17 @@
         <v>0</v>
       </c>
       <c r="C251" s="41" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D251" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="20" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G251" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H251" s="18">
         <v>14.0</v>
@@ -11277,17 +11411,17 @@
         <v>0</v>
       </c>
       <c r="C252" s="41" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D252" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="20" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G252" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H252" s="18">
         <v>15.0</v>
@@ -11301,17 +11435,17 @@
         <v>0</v>
       </c>
       <c r="C253" s="41" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D253" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="20" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G253" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H253" s="18">
         <v>16.0</v>
@@ -11325,17 +11459,17 @@
         <v>0</v>
       </c>
       <c r="C254" s="41" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="20" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G254" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H254" s="18">
         <v>17.0</v>
@@ -11349,17 +11483,17 @@
         <v>0</v>
       </c>
       <c r="C255" s="41" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D255" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="20" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G255" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H255" s="18">
         <v>18.0</v>
@@ -11373,17 +11507,17 @@
         <v>0</v>
       </c>
       <c r="C256" s="41" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D256" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="20" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G256" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H256" s="18">
         <v>19.0</v>
@@ -11397,17 +11531,17 @@
         <v>0</v>
       </c>
       <c r="C257" s="41" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="20" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G257" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H257" s="18">
         <v>20.0</v>
@@ -11421,17 +11555,17 @@
         <v>0</v>
       </c>
       <c r="C258" s="41" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D258" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="20" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G258" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H258" s="18">
         <v>21.0</v>
@@ -11445,17 +11579,17 @@
         <v>0</v>
       </c>
       <c r="C259" s="41" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D259" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="20" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G259" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H259" s="18">
         <v>22.0</v>
@@ -11469,17 +11603,17 @@
         <v>0</v>
       </c>
       <c r="C260" s="41" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="20" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G260" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H260" s="18">
         <v>23.0</v>
@@ -11493,17 +11627,17 @@
         <v>0</v>
       </c>
       <c r="C261" s="41" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="20" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G261" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H261" s="18">
         <v>24.0</v>
@@ -11517,17 +11651,17 @@
         <v>0</v>
       </c>
       <c r="C262" s="41" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D262" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="20" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G262" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H262" s="18">
         <v>25.0</v>
@@ -11541,17 +11675,17 @@
         <v>0</v>
       </c>
       <c r="C263" s="42" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E263" s="24"/>
       <c r="F263" s="25" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H263" s="26">
         <v>26.0</v>
@@ -11627,18 +11761,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="9" t="s">
+        <v>552</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -11663,17 +11799,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -11689,17 +11825,17 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -11715,17 +11851,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -11741,17 +11877,17 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -11767,17 +11903,17 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -11793,15 +11929,17 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>564</v>
+      </c>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -11816,14 +11954,18 @@
       <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>565</v>
+      </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>566</v>
+      </c>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -11838,14 +11980,18 @@
       <c r="B13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>567</v>
+      </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>342</v>
+      </c>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -11860,14 +12006,18 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="15" t="s">
+        <v>568</v>
+      </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="17" t="s">
+        <v>569</v>
+      </c>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -11882,14 +12032,18 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="15" t="s">
+        <v>570</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="17" t="s">
+        <v>571</v>
+      </c>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -11904,14 +12058,18 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="15" t="s">
+        <v>572</v>
+      </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="17" t="s">
+        <v>573</v>
+      </c>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -11926,14 +12084,18 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="15" t="s">
+        <v>574</v>
+      </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="17" t="s">
+        <v>575</v>
+      </c>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -11948,14 +12110,18 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="15" t="s">
+        <v>576</v>
+      </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="17" t="s">
+        <v>577</v>
+      </c>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -11970,14 +12136,18 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="15" t="s">
+        <v>578</v>
+      </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="17" t="s">
+        <v>579</v>
+      </c>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -11992,14 +12162,18 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="15" t="s">
+        <v>580</v>
+      </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="17" t="s">
+        <v>581</v>
+      </c>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -12014,14 +12188,18 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="15" t="s">
+        <v>582</v>
+      </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="17" t="s">
+        <v>583</v>
+      </c>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -12036,14 +12214,18 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="15" t="s">
+        <v>584</v>
+      </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="17" t="s">
+        <v>585</v>
+      </c>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -12058,14 +12240,18 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="15" t="s">
+        <v>586</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -12080,14 +12266,18 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="15" t="s">
+        <v>588</v>
+      </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="17" t="s">
+        <v>589</v>
+      </c>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -12102,14 +12292,18 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="15" t="s">
+        <v>590</v>
+      </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="17" t="s">
+        <v>591</v>
+      </c>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -12124,14 +12318,18 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="15" t="s">
+        <v>592</v>
+      </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="17" t="s">
+        <v>593</v>
+      </c>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -12147,17 +12345,17 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>557</v>
+        <v>594</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="17" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -12173,17 +12371,17 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>559</v>
+        <v>596</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>560</v>
+        <v>597</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -12199,17 +12397,17 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>561</v>
+        <v>598</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -12225,17 +12423,17 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>563</v>
+        <v>600</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="17" t="s">
-        <v>564</v>
+        <v>601</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -12251,17 +12449,17 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>565</v>
+        <v>602</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="43" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -12316,18 +12514,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="9" t="s">
+        <v>605</v>
+      </c>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -12358,7 +12558,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -12380,7 +12580,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -12402,7 +12602,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -12424,7 +12624,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -12446,7 +12646,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -12468,7 +12668,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -12490,7 +12690,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -12512,7 +12712,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -12527,14 +12727,14 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -12549,14 +12749,14 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -12571,14 +12771,14 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -12593,14 +12793,14 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -12615,14 +12815,14 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -12637,14 +12837,14 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -12659,14 +12859,14 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -12681,14 +12881,14 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -12703,14 +12903,14 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -12725,14 +12925,14 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -12747,14 +12947,14 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -12769,14 +12969,14 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -12791,14 +12991,14 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -12813,14 +13013,14 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -12835,14 +13035,14 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -12857,14 +13057,14 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -12879,14 +13079,14 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -12908,7 +13108,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -12963,18 +13163,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -13005,7 +13205,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -13027,7 +13227,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -13049,7 +13249,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -13071,7 +13271,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -13093,7 +13293,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -13115,7 +13315,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -13137,7 +13337,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -13159,7 +13359,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -13174,14 +13374,14 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -13196,14 +13396,14 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -13218,14 +13418,14 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -13240,14 +13440,14 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -13262,14 +13462,14 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -13284,14 +13484,14 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -13306,14 +13506,14 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -13328,14 +13528,14 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -13350,14 +13550,14 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -13372,14 +13572,14 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -13394,14 +13594,14 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -13416,14 +13616,14 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -13438,14 +13638,14 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -13460,14 +13660,14 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -13482,14 +13682,14 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -13504,14 +13704,14 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -13526,14 +13726,14 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -13555,7 +13755,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -13610,18 +13810,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -13652,7 +13852,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -13674,7 +13874,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -13696,7 +13896,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -13718,7 +13918,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -13740,7 +13940,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -13762,7 +13962,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -13784,7 +13984,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -13806,7 +14006,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -13821,14 +14021,14 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -13843,14 +14043,14 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -13865,14 +14065,14 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -13887,14 +14087,14 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -13909,14 +14109,14 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -13931,14 +14131,14 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -13953,14 +14153,14 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -13975,14 +14175,14 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -13997,14 +14197,14 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -14019,14 +14219,14 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -14041,14 +14241,14 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -14063,14 +14263,14 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -14085,14 +14285,14 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -14107,14 +14307,14 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -14129,14 +14329,14 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -14151,14 +14351,14 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -14173,14 +14373,14 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -14202,7 +14402,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>
@@ -14257,18 +14457,18 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>0</v>
@@ -14299,7 +14499,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="18">
         <v>1.0</v>
@@ -14321,7 +14521,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="18">
         <v>2.0</v>
@@ -14343,7 +14543,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="17"/>
       <c r="G8" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="18">
         <v>3.0</v>
@@ -14365,7 +14565,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="17"/>
       <c r="G9" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="18">
         <v>4.0</v>
@@ -14387,7 +14587,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18">
         <v>5.0</v>
@@ -14409,7 +14609,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>6.0</v>
@@ -14431,7 +14631,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>7.0</v>
@@ -14453,7 +14653,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="18">
         <v>8.0</v>
@@ -14468,14 +14668,14 @@
       <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="18">
         <v>9.0</v>
@@ -14490,14 +14690,14 @@
       <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="18">
         <v>10.0</v>
@@ -14512,14 +14712,14 @@
       <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>11.0</v>
@@ -14534,14 +14734,14 @@
       <c r="B17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>12.0</v>
@@ -14556,14 +14756,14 @@
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="18">
         <v>13.0</v>
@@ -14578,14 +14778,14 @@
       <c r="B19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20"/>
       <c r="G19" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="18">
         <v>14.0</v>
@@ -14600,14 +14800,14 @@
       <c r="B20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20"/>
       <c r="G20" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="18">
         <v>15.0</v>
@@ -14622,14 +14822,14 @@
       <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20"/>
       <c r="G21" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="18">
         <v>16.0</v>
@@ -14644,14 +14844,14 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20"/>
       <c r="G22" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="18">
         <v>17.0</v>
@@ -14666,14 +14866,14 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20"/>
       <c r="G23" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="18">
         <v>18.0</v>
@@ -14688,14 +14888,14 @@
       <c r="B24" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="18">
         <v>19.0</v>
@@ -14710,14 +14910,14 @@
       <c r="B25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20"/>
       <c r="G25" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="18">
         <v>20.0</v>
@@ -14732,14 +14932,14 @@
       <c r="B26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="18">
         <v>21.0</v>
@@ -14754,14 +14954,14 @@
       <c r="B27" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20"/>
       <c r="G27" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>22.0</v>
@@ -14776,14 +14976,14 @@
       <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20"/>
       <c r="G28" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="18">
         <v>23.0</v>
@@ -14798,14 +14998,14 @@
       <c r="B29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20"/>
       <c r="G29" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="18">
         <v>24.0</v>
@@ -14820,14 +15020,14 @@
       <c r="B30" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20"/>
       <c r="G30" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="18">
         <v>25.0</v>
@@ -14849,7 +15049,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="26">
         <v>26.0</v>

--- a/dev.bitstationary/-a/-a.xlsx
+++ b/dev.bitstationary/-a/-a.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="624">
   <si>
     <t>-</t>
   </si>
@@ -146,52 +146,97 @@
     <t>range.on</t>
   </si>
   <si>
+    <t>Indent</t>
+  </si>
+  <si>
     <t>migrate.node</t>
   </si>
   <si>
+    <t>Stay</t>
+  </si>
+  <si>
     <t>memory.blot</t>
   </si>
   <si>
+    <t>Seek</t>
+  </si>
+  <si>
     <t>convert.pull</t>
   </si>
   <si>
+    <t>Emit</t>
+  </si>
+  <si>
     <t>interpret.method</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
     <t>balloon.suit</t>
   </si>
   <si>
+    <t>Break</t>
+  </si>
+  <si>
     <t>prototype.copy</t>
   </si>
   <si>
+    <t>Lounge</t>
+  </si>
+  <si>
     <t>cosy.ai</t>
   </si>
   <si>
+    <t>Sharp</t>
+  </si>
+  <si>
     <t>.format</t>
   </si>
   <si>
+    <t>Elective</t>
+  </si>
+  <si>
     <t>Degree</t>
   </si>
   <si>
     <t>f.x</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>i.c</t>
   </si>
   <si>
+    <t>Loop</t>
+  </si>
+  <si>
     <t>p.i</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>.xyz</t>
   </si>
   <si>
+    <t>Peripheral</t>
+  </si>
+  <si>
     <t>Mode</t>
   </si>
   <si>
     <t>recycle.it</t>
   </si>
   <si>
+    <t>Concern</t>
+  </si>
+  <si>
     <t>.it</t>
+  </si>
+  <si>
+    <t>Nonetheless</t>
   </si>
   <si>
     <t>_prePlate33_</t>
@@ -2077,6 +2122,9 @@
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -2106,9 +2154,6 @@
     </xf>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3053,6 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3747,7 +3793,9 @@
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
       </c>
@@ -3765,13 +3813,15 @@
         <v>0</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
       </c>
@@ -3789,13 +3839,15 @@
         <v>0</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
       </c>
@@ -3813,13 +3865,15 @@
         <v>0</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
       </c>
@@ -3837,13 +3891,15 @@
         <v>0</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
       </c>
@@ -3861,13 +3917,15 @@
         <v>0</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
       </c>
@@ -3885,13 +3943,15 @@
         <v>0</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
       </c>
@@ -3909,13 +3969,15 @@
         <v>0</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
       </c>
@@ -4307,13 +4369,15 @@
         <v>0</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
+      <c r="F60" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
       </c>
@@ -4338,7 +4402,7 @@
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
@@ -4369,13 +4433,15 @@
         <v>0</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
       </c>
@@ -4393,13 +4459,15 @@
         <v>0</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
       </c>
@@ -4417,13 +4485,15 @@
         <v>0</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
       </c>
@@ -4925,13 +4995,15 @@
         <v>0</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
+      <c r="F89" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
       </c>
@@ -4956,7 +5028,7 @@
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="9" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
@@ -4987,13 +5059,15 @@
         <v>0</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
-      <c r="F93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
       </c>
@@ -5539,13 +5613,15 @@
         <v>0</v>
       </c>
       <c r="C118" s="32" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="25"/>
+      <c r="F118" s="33" t="s">
+        <v>72</v>
+      </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
       </c>
@@ -5566,6 +5642,9 @@
       <c r="H120" s="4"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5623,22 +5702,22 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>58</v>
+      <c r="C4" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -5663,15 +5742,15 @@
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>61</v>
+      <c r="C6" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="37" t="s">
-        <v>62</v>
+      <c r="F6" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -5689,15 +5768,15 @@
       <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>63</v>
+      <c r="C7" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="37" t="s">
-        <v>64</v>
+      <c r="F7" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -5715,15 +5794,15 @@
       <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>65</v>
+      <c r="C8" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="37" t="s">
-        <v>66</v>
+      <c r="F8" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -5741,15 +5820,15 @@
       <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>67</v>
+      <c r="C9" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="37" t="s">
-        <v>68</v>
+      <c r="F9" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -5767,15 +5846,15 @@
       <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>69</v>
+      <c r="C10" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="37" t="s">
-        <v>70</v>
+      <c r="F10" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -5793,15 +5872,15 @@
       <c r="B11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>71</v>
+      <c r="C11" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="37" t="s">
-        <v>72</v>
+      <c r="F11" s="38" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -5819,15 +5898,15 @@
       <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>73</v>
+      <c r="C12" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="37" t="s">
-        <v>74</v>
+      <c r="F12" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -5845,15 +5924,15 @@
       <c r="B13" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>75</v>
+      <c r="C13" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="37" t="s">
-        <v>76</v>
+      <c r="F13" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -5872,14 +5951,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -5898,14 +5977,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -5924,14 +6003,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -5950,14 +6029,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -5976,14 +6055,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -6002,14 +6081,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -6028,14 +6107,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -6054,14 +6133,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -6080,14 +6159,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -6106,14 +6185,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -6132,14 +6211,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -6158,14 +6237,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -6184,14 +6263,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -6210,14 +6289,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -6236,14 +6315,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -6262,14 +6341,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -6288,14 +6367,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -6313,15 +6392,15 @@
       <c r="B31" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>111</v>
+      <c r="C31" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -6348,23 +6427,23 @@
       <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>61</v>
+      <c r="C33" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>115</v>
+      <c r="H33" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>0</v>
@@ -6384,15 +6463,15 @@
       <c r="B35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>116</v>
+      <c r="C35" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="20" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
@@ -6408,15 +6487,15 @@
       <c r="B36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>118</v>
+      <c r="C36" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="20" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
@@ -6432,15 +6511,15 @@
       <c r="B37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>120</v>
+      <c r="C37" s="42" t="s">
+        <v>135</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="20" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
@@ -6456,15 +6535,15 @@
       <c r="B38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>122</v>
+      <c r="C38" s="42" t="s">
+        <v>137</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="20" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
@@ -6480,15 +6559,15 @@
       <c r="B39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>124</v>
+      <c r="C39" s="42" t="s">
+        <v>139</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="20" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
@@ -6504,15 +6583,15 @@
       <c r="B40" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>126</v>
+      <c r="C40" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="20" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
@@ -6528,15 +6607,15 @@
       <c r="B41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>128</v>
+      <c r="C41" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="20" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
@@ -6552,15 +6631,15 @@
       <c r="B42" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>130</v>
+      <c r="C42" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="20" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
@@ -6576,15 +6655,15 @@
       <c r="B43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>132</v>
+      <c r="C43" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="20" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>4</v>
@@ -6600,15 +6679,15 @@
       <c r="B44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>134</v>
+      <c r="C44" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="20" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>4</v>
@@ -6624,15 +6703,15 @@
       <c r="B45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>136</v>
+      <c r="C45" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="20" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>4</v>
@@ -6648,15 +6727,15 @@
       <c r="B46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>138</v>
+      <c r="C46" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="20" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>4</v>
@@ -6672,15 +6751,15 @@
       <c r="B47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>140</v>
+      <c r="C47" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="20" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>4</v>
@@ -6696,15 +6775,15 @@
       <c r="B48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="41" t="s">
-        <v>142</v>
+      <c r="C48" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="20" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>4</v>
@@ -6720,15 +6799,15 @@
       <c r="B49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="41" t="s">
-        <v>144</v>
+      <c r="C49" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="20" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>4</v>
@@ -6744,15 +6823,15 @@
       <c r="B50" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>146</v>
+      <c r="C50" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="20" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>4</v>
@@ -6768,15 +6847,15 @@
       <c r="B51" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="41" t="s">
-        <v>148</v>
+      <c r="C51" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="20" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>4</v>
@@ -6792,15 +6871,15 @@
       <c r="B52" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>150</v>
+      <c r="C52" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="20" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>4</v>
@@ -6816,15 +6895,15 @@
       <c r="B53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="41" t="s">
-        <v>152</v>
+      <c r="C53" s="42" t="s">
+        <v>167</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="20" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>4</v>
@@ -6840,15 +6919,15 @@
       <c r="B54" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>154</v>
+      <c r="C54" s="42" t="s">
+        <v>169</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="20" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>4</v>
@@ -6864,15 +6943,15 @@
       <c r="B55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="41" t="s">
-        <v>156</v>
+      <c r="C55" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="20" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>4</v>
@@ -6888,15 +6967,15 @@
       <c r="B56" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>158</v>
+      <c r="C56" s="42" t="s">
+        <v>173</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="20" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>4</v>
@@ -6912,15 +6991,15 @@
       <c r="B57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>160</v>
+      <c r="C57" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="20" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>4</v>
@@ -6936,15 +7015,15 @@
       <c r="B58" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="41" t="s">
-        <v>162</v>
+      <c r="C58" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="20" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>4</v>
@@ -6960,15 +7039,15 @@
       <c r="B59" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="41" t="s">
-        <v>164</v>
+      <c r="C59" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="20" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>4</v>
@@ -6984,15 +7063,15 @@
       <c r="B60" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>166</v>
+      <c r="C60" s="43" t="s">
+        <v>181</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
@@ -7018,23 +7097,23 @@
       <c r="B62" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>63</v>
+      <c r="C62" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>169</v>
+        <v>183</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="40" t="s">
-        <v>170</v>
+      <c r="H62" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>0</v>
@@ -7054,15 +7133,15 @@
       <c r="B64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="41" t="s">
-        <v>171</v>
+      <c r="C64" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
@@ -7078,15 +7157,15 @@
       <c r="B65" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="41" t="s">
-        <v>173</v>
+      <c r="C65" s="42" t="s">
+        <v>188</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="20" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
@@ -7102,15 +7181,15 @@
       <c r="B66" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>175</v>
+      <c r="C66" s="42" t="s">
+        <v>190</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="20" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
@@ -7126,15 +7205,15 @@
       <c r="B67" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="41" t="s">
-        <v>177</v>
+      <c r="C67" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="20" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>4</v>
@@ -7150,15 +7229,15 @@
       <c r="B68" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="41" t="s">
-        <v>179</v>
+      <c r="C68" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="20" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>4</v>
@@ -7174,15 +7253,15 @@
       <c r="B69" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="41" t="s">
-        <v>181</v>
+      <c r="C69" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="20" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>4</v>
@@ -7198,15 +7277,15 @@
       <c r="B70" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="41" t="s">
-        <v>183</v>
+      <c r="C70" s="42" t="s">
+        <v>198</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="20" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>4</v>
@@ -7222,15 +7301,15 @@
       <c r="B71" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="41" t="s">
-        <v>185</v>
+      <c r="C71" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="20" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>4</v>
@@ -7246,15 +7325,15 @@
       <c r="B72" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>187</v>
+      <c r="C72" s="42" t="s">
+        <v>202</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="20" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>4</v>
@@ -7270,15 +7349,15 @@
       <c r="B73" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>189</v>
+      <c r="C73" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="20" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>4</v>
@@ -7294,15 +7373,15 @@
       <c r="B74" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="41" t="s">
-        <v>191</v>
+      <c r="C74" s="42" t="s">
+        <v>206</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="20" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>4</v>
@@ -7318,15 +7397,15 @@
       <c r="B75" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="41" t="s">
-        <v>193</v>
+      <c r="C75" s="42" t="s">
+        <v>208</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="20" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>4</v>
@@ -7342,15 +7421,15 @@
       <c r="B76" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="41" t="s">
-        <v>195</v>
+      <c r="C76" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="20" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>4</v>
@@ -7366,15 +7445,15 @@
       <c r="B77" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>197</v>
+      <c r="C77" s="42" t="s">
+        <v>212</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="20" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>4</v>
@@ -7390,15 +7469,15 @@
       <c r="B78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="41" t="s">
-        <v>199</v>
+      <c r="C78" s="42" t="s">
+        <v>214</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="20" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>4</v>
@@ -7414,15 +7493,15 @@
       <c r="B79" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="41" t="s">
-        <v>201</v>
+      <c r="C79" s="42" t="s">
+        <v>216</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="20" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>4</v>
@@ -7438,15 +7517,15 @@
       <c r="B80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>203</v>
+      <c r="C80" s="42" t="s">
+        <v>218</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="20" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>4</v>
@@ -7462,15 +7541,15 @@
       <c r="B81" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>205</v>
+      <c r="C81" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="20" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>4</v>
@@ -7486,15 +7565,15 @@
       <c r="B82" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="41" t="s">
-        <v>207</v>
+      <c r="C82" s="42" t="s">
+        <v>222</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="20" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>4</v>
@@ -7510,15 +7589,15 @@
       <c r="B83" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="41" t="s">
-        <v>209</v>
+      <c r="C83" s="42" t="s">
+        <v>224</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="20" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>4</v>
@@ -7534,15 +7613,15 @@
       <c r="B84" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="41" t="s">
-        <v>211</v>
+      <c r="C84" s="42" t="s">
+        <v>226</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="20" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>4</v>
@@ -7558,15 +7637,15 @@
       <c r="B85" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="41" t="s">
-        <v>213</v>
+      <c r="C85" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="20" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>4</v>
@@ -7582,15 +7661,15 @@
       <c r="B86" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="41" t="s">
-        <v>215</v>
+      <c r="C86" s="42" t="s">
+        <v>230</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="20" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>4</v>
@@ -7606,15 +7685,15 @@
       <c r="B87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="41" t="s">
-        <v>217</v>
+      <c r="C87" s="42" t="s">
+        <v>232</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="20" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>4</v>
@@ -7630,15 +7709,15 @@
       <c r="B88" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="41" t="s">
-        <v>219</v>
+      <c r="C88" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="20" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>4</v>
@@ -7654,15 +7733,15 @@
       <c r="B89" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="42" t="s">
-        <v>221</v>
+      <c r="C89" s="43" t="s">
+        <v>236</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="25" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
@@ -7688,23 +7767,23 @@
       <c r="B91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C91" s="39" t="s">
-        <v>65</v>
+      <c r="C91" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>224</v>
+        <v>238</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>239</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="40" t="s">
-        <v>225</v>
+      <c r="H91" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>0</v>
@@ -7724,15 +7803,15 @@
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="41" t="s">
-        <v>226</v>
+      <c r="C93" s="42" t="s">
+        <v>241</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="20" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
@@ -7748,15 +7827,15 @@
       <c r="B94" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="41" t="s">
-        <v>228</v>
+      <c r="C94" s="42" t="s">
+        <v>243</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="20" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>4</v>
@@ -7772,15 +7851,15 @@
       <c r="B95" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="41" t="s">
-        <v>230</v>
+      <c r="C95" s="42" t="s">
+        <v>245</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="20" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>4</v>
@@ -7796,15 +7875,15 @@
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="41" t="s">
-        <v>232</v>
+      <c r="C96" s="42" t="s">
+        <v>247</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="20" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>4</v>
@@ -7820,8 +7899,8 @@
       <c r="B97" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="41" t="s">
-        <v>234</v>
+      <c r="C97" s="42" t="s">
+        <v>249</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>2</v>
@@ -7844,15 +7923,15 @@
       <c r="B98" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="41" t="s">
-        <v>235</v>
+      <c r="C98" s="42" t="s">
+        <v>250</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="20" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>4</v>
@@ -7868,15 +7947,15 @@
       <c r="B99" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="41" t="s">
-        <v>237</v>
+      <c r="C99" s="42" t="s">
+        <v>252</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="20" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>4</v>
@@ -7892,15 +7971,15 @@
       <c r="B100" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="41" t="s">
-        <v>239</v>
+      <c r="C100" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="20" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>4</v>
@@ -7916,15 +7995,15 @@
       <c r="B101" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="41" t="s">
-        <v>241</v>
+      <c r="C101" s="42" t="s">
+        <v>256</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="20" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>4</v>
@@ -7940,15 +8019,15 @@
       <c r="B102" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="41" t="s">
-        <v>243</v>
+      <c r="C102" s="42" t="s">
+        <v>258</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="20" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>4</v>
@@ -7964,15 +8043,15 @@
       <c r="B103" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="41" t="s">
-        <v>245</v>
+      <c r="C103" s="42" t="s">
+        <v>260</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="20" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>4</v>
@@ -7988,15 +8067,15 @@
       <c r="B104" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="41" t="s">
-        <v>247</v>
+      <c r="C104" s="42" t="s">
+        <v>262</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="20" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>4</v>
@@ -8012,15 +8091,15 @@
       <c r="B105" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="41" t="s">
-        <v>249</v>
+      <c r="C105" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="20" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>4</v>
@@ -8036,15 +8115,15 @@
       <c r="B106" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="41" t="s">
-        <v>251</v>
+      <c r="C106" s="42" t="s">
+        <v>266</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="20" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>4</v>
@@ -8060,15 +8139,15 @@
       <c r="B107" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="41" t="s">
-        <v>253</v>
+      <c r="C107" s="42" t="s">
+        <v>268</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>4</v>
@@ -8084,15 +8163,15 @@
       <c r="B108" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="41" t="s">
-        <v>255</v>
+      <c r="C108" s="42" t="s">
+        <v>270</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="20" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>4</v>
@@ -8108,15 +8187,15 @@
       <c r="B109" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="41" t="s">
-        <v>257</v>
+      <c r="C109" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="20" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>4</v>
@@ -8132,15 +8211,15 @@
       <c r="B110" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="41" t="s">
-        <v>259</v>
+      <c r="C110" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="20" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>4</v>
@@ -8156,15 +8235,15 @@
       <c r="B111" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="41" t="s">
-        <v>261</v>
+      <c r="C111" s="42" t="s">
+        <v>276</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="20" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>4</v>
@@ -8180,15 +8259,15 @@
       <c r="B112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="41" t="s">
-        <v>263</v>
+      <c r="C112" s="42" t="s">
+        <v>278</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="20" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>4</v>
@@ -8204,15 +8283,15 @@
       <c r="B113" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="41" t="s">
-        <v>265</v>
+      <c r="C113" s="42" t="s">
+        <v>280</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="20" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>4</v>
@@ -8228,15 +8307,15 @@
       <c r="B114" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="41" t="s">
-        <v>267</v>
+      <c r="C114" s="42" t="s">
+        <v>282</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="20" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>4</v>
@@ -8252,15 +8331,15 @@
       <c r="B115" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="41" t="s">
-        <v>269</v>
+      <c r="C115" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="20" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>4</v>
@@ -8276,15 +8355,15 @@
       <c r="B116" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="41" t="s">
-        <v>271</v>
+      <c r="C116" s="42" t="s">
+        <v>286</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="20" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>4</v>
@@ -8300,15 +8379,15 @@
       <c r="B117" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="41" t="s">
-        <v>273</v>
+      <c r="C117" s="42" t="s">
+        <v>288</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="20" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>4</v>
@@ -8324,15 +8403,15 @@
       <c r="B118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="42" t="s">
-        <v>275</v>
+      <c r="C118" s="43" t="s">
+        <v>290</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="25" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
@@ -8358,23 +8437,23 @@
       <c r="B120" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>67</v>
+      <c r="C120" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="F120" s="34" t="s">
-        <v>278</v>
+        <v>292</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>293</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="40" t="s">
-        <v>279</v>
+      <c r="H120" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>0</v>
@@ -8394,15 +8473,15 @@
       <c r="B122" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="41" t="s">
-        <v>280</v>
+      <c r="C122" s="42" t="s">
+        <v>295</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="20" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>4</v>
@@ -8418,15 +8497,15 @@
       <c r="B123" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="41" t="s">
-        <v>282</v>
+      <c r="C123" s="42" t="s">
+        <v>297</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="20" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>4</v>
@@ -8442,15 +8521,15 @@
       <c r="B124" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="41" t="s">
-        <v>284</v>
+      <c r="C124" s="42" t="s">
+        <v>299</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="20" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>4</v>
@@ -8466,15 +8545,15 @@
       <c r="B125" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C125" s="41" t="s">
-        <v>286</v>
+      <c r="C125" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="20" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>4</v>
@@ -8490,15 +8569,15 @@
       <c r="B126" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="41" t="s">
-        <v>288</v>
+      <c r="C126" s="42" t="s">
+        <v>303</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="20" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>4</v>
@@ -8514,15 +8593,15 @@
       <c r="B127" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="41" t="s">
-        <v>290</v>
+      <c r="C127" s="42" t="s">
+        <v>305</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="20" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>4</v>
@@ -8538,15 +8617,15 @@
       <c r="B128" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="41" t="s">
-        <v>292</v>
+      <c r="C128" s="42" t="s">
+        <v>307</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="20" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>4</v>
@@ -8562,15 +8641,15 @@
       <c r="B129" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C129" s="41" t="s">
-        <v>294</v>
+      <c r="C129" s="42" t="s">
+        <v>309</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="20" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G129" s="16" t="s">
         <v>4</v>
@@ -8586,15 +8665,15 @@
       <c r="B130" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C130" s="41" t="s">
-        <v>296</v>
+      <c r="C130" s="42" t="s">
+        <v>311</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="20" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>4</v>
@@ -8610,15 +8689,15 @@
       <c r="B131" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="41" t="s">
-        <v>298</v>
+      <c r="C131" s="42" t="s">
+        <v>313</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="20" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>4</v>
@@ -8634,15 +8713,15 @@
       <c r="B132" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C132" s="41" t="s">
-        <v>300</v>
+      <c r="C132" s="42" t="s">
+        <v>315</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="20" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>4</v>
@@ -8658,15 +8737,15 @@
       <c r="B133" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="41" t="s">
-        <v>302</v>
+      <c r="C133" s="42" t="s">
+        <v>317</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="20" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>4</v>
@@ -8682,15 +8761,15 @@
       <c r="B134" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="41" t="s">
-        <v>304</v>
+      <c r="C134" s="42" t="s">
+        <v>319</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="20" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>4</v>
@@ -8706,15 +8785,15 @@
       <c r="B135" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C135" s="41" t="s">
-        <v>306</v>
+      <c r="C135" s="42" t="s">
+        <v>321</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="20" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>4</v>
@@ -8730,15 +8809,15 @@
       <c r="B136" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C136" s="41" t="s">
-        <v>308</v>
+      <c r="C136" s="42" t="s">
+        <v>323</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="20" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G136" s="16" t="s">
         <v>4</v>
@@ -8754,15 +8833,15 @@
       <c r="B137" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="41" t="s">
-        <v>310</v>
+      <c r="C137" s="42" t="s">
+        <v>325</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="20" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>4</v>
@@ -8778,15 +8857,15 @@
       <c r="B138" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C138" s="41" t="s">
-        <v>312</v>
+      <c r="C138" s="42" t="s">
+        <v>327</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="20" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>4</v>
@@ -8802,15 +8881,15 @@
       <c r="B139" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="41" t="s">
-        <v>314</v>
+      <c r="C139" s="42" t="s">
+        <v>329</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="20" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>4</v>
@@ -8826,15 +8905,15 @@
       <c r="B140" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C140" s="41" t="s">
-        <v>316</v>
+      <c r="C140" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="20" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>4</v>
@@ -8850,15 +8929,15 @@
       <c r="B141" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C141" s="41" t="s">
-        <v>318</v>
+      <c r="C141" s="42" t="s">
+        <v>333</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="20" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>4</v>
@@ -8874,15 +8953,15 @@
       <c r="B142" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="41" t="s">
-        <v>320</v>
+      <c r="C142" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="20" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>4</v>
@@ -8898,15 +8977,15 @@
       <c r="B143" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="41" t="s">
-        <v>322</v>
+      <c r="C143" s="42" t="s">
+        <v>337</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="20" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>4</v>
@@ -8922,15 +9001,15 @@
       <c r="B144" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="41" t="s">
-        <v>324</v>
+      <c r="C144" s="42" t="s">
+        <v>339</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="20" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>4</v>
@@ -8946,15 +9025,15 @@
       <c r="B145" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="41" t="s">
-        <v>326</v>
+      <c r="C145" s="42" t="s">
+        <v>341</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="20" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>4</v>
@@ -8970,15 +9049,15 @@
       <c r="B146" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C146" s="41" t="s">
-        <v>328</v>
+      <c r="C146" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="20" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>4</v>
@@ -8994,15 +9073,15 @@
       <c r="B147" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="42" t="s">
-        <v>330</v>
+      <c r="C147" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="25" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G147" s="23" t="s">
         <v>4</v>
@@ -9028,23 +9107,23 @@
       <c r="B149" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="39" t="s">
-        <v>69</v>
+      <c r="C149" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="F149" s="34" t="s">
-        <v>333</v>
+        <v>347</v>
+      </c>
+      <c r="F149" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H149" s="40" t="s">
-        <v>334</v>
+      <c r="H149" s="41" t="s">
+        <v>349</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>0</v>
@@ -9064,15 +9143,15 @@
       <c r="B151" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="41" t="s">
-        <v>335</v>
+      <c r="C151" s="42" t="s">
+        <v>350</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="20" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>4</v>
@@ -9088,15 +9167,15 @@
       <c r="B152" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="41" t="s">
-        <v>337</v>
+      <c r="C152" s="42" t="s">
+        <v>352</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="20" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>4</v>
@@ -9112,15 +9191,15 @@
       <c r="B153" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C153" s="41" t="s">
-        <v>339</v>
+      <c r="C153" s="42" t="s">
+        <v>354</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="20" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>4</v>
@@ -9136,15 +9215,15 @@
       <c r="B154" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="41" t="s">
-        <v>341</v>
+      <c r="C154" s="42" t="s">
+        <v>356</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="20" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>4</v>
@@ -9160,15 +9239,15 @@
       <c r="B155" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C155" s="41" t="s">
-        <v>343</v>
+      <c r="C155" s="42" t="s">
+        <v>358</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="20" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>4</v>
@@ -9184,15 +9263,15 @@
       <c r="B156" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C156" s="41" t="s">
-        <v>345</v>
+      <c r="C156" s="42" t="s">
+        <v>360</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="20" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>4</v>
@@ -9208,15 +9287,15 @@
       <c r="B157" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="41" t="s">
-        <v>347</v>
+      <c r="C157" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="20" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>4</v>
@@ -9232,15 +9311,15 @@
       <c r="B158" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="41" t="s">
-        <v>349</v>
+      <c r="C158" s="42" t="s">
+        <v>364</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="20" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>4</v>
@@ -9256,15 +9335,15 @@
       <c r="B159" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="41" t="s">
-        <v>351</v>
+      <c r="C159" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="20" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>4</v>
@@ -9280,15 +9359,15 @@
       <c r="B160" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C160" s="41" t="s">
-        <v>353</v>
+      <c r="C160" s="42" t="s">
+        <v>368</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="20" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>4</v>
@@ -9304,15 +9383,15 @@
       <c r="B161" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="41" t="s">
-        <v>355</v>
+      <c r="C161" s="42" t="s">
+        <v>370</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="20" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>4</v>
@@ -9328,15 +9407,15 @@
       <c r="B162" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C162" s="41" t="s">
-        <v>357</v>
+      <c r="C162" s="42" t="s">
+        <v>372</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="20" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>4</v>
@@ -9352,15 +9431,15 @@
       <c r="B163" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="41" t="s">
-        <v>359</v>
+      <c r="C163" s="42" t="s">
+        <v>374</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="20" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>4</v>
@@ -9376,15 +9455,15 @@
       <c r="B164" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C164" s="41" t="s">
-        <v>361</v>
+      <c r="C164" s="42" t="s">
+        <v>376</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="20" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>4</v>
@@ -9400,15 +9479,15 @@
       <c r="B165" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C165" s="41" t="s">
-        <v>363</v>
+      <c r="C165" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="20" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>4</v>
@@ -9424,15 +9503,15 @@
       <c r="B166" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C166" s="41" t="s">
-        <v>365</v>
+      <c r="C166" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="20" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>4</v>
@@ -9448,15 +9527,15 @@
       <c r="B167" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="41" t="s">
-        <v>367</v>
+      <c r="C167" s="42" t="s">
+        <v>382</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="20" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>4</v>
@@ -9472,15 +9551,15 @@
       <c r="B168" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C168" s="41" t="s">
-        <v>369</v>
+      <c r="C168" s="42" t="s">
+        <v>384</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="20" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>4</v>
@@ -9496,8 +9575,8 @@
       <c r="B169" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C169" s="41" t="s">
-        <v>371</v>
+      <c r="C169" s="42" t="s">
+        <v>386</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>2</v>
@@ -9520,15 +9599,15 @@
       <c r="B170" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="41" t="s">
-        <v>372</v>
+      <c r="C170" s="42" t="s">
+        <v>387</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="20" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>4</v>
@@ -9544,15 +9623,15 @@
       <c r="B171" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C171" s="41" t="s">
-        <v>374</v>
+      <c r="C171" s="42" t="s">
+        <v>389</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="20" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>4</v>
@@ -9568,15 +9647,15 @@
       <c r="B172" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C172" s="41" t="s">
-        <v>376</v>
+      <c r="C172" s="42" t="s">
+        <v>391</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="20" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>4</v>
@@ -9592,15 +9671,15 @@
       <c r="B173" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="41" t="s">
-        <v>378</v>
+      <c r="C173" s="42" t="s">
+        <v>393</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="20" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>4</v>
@@ -9616,15 +9695,15 @@
       <c r="B174" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="41" t="s">
-        <v>380</v>
+      <c r="C174" s="42" t="s">
+        <v>395</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="20" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>4</v>
@@ -9640,15 +9719,15 @@
       <c r="B175" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="41" t="s">
-        <v>382</v>
+      <c r="C175" s="42" t="s">
+        <v>397</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="20" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>4</v>
@@ -9664,15 +9743,15 @@
       <c r="B176" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C176" s="42" t="s">
-        <v>384</v>
+      <c r="C176" s="43" t="s">
+        <v>399</v>
       </c>
       <c r="D176" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="25" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>4</v>
@@ -9698,23 +9777,23 @@
       <c r="B178" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C178" s="39" t="s">
-        <v>71</v>
+      <c r="C178" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="F178" s="34" t="s">
-        <v>387</v>
+        <v>401</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>402</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H178" s="40" t="s">
-        <v>388</v>
+      <c r="H178" s="41" t="s">
+        <v>403</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>0</v>
@@ -9734,15 +9813,15 @@
       <c r="B180" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C180" s="41" t="s">
-        <v>389</v>
+      <c r="C180" s="42" t="s">
+        <v>404</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="20" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>4</v>
@@ -9758,15 +9837,15 @@
       <c r="B181" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="41" t="s">
-        <v>391</v>
+      <c r="C181" s="42" t="s">
+        <v>406</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="20" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>4</v>
@@ -9782,15 +9861,15 @@
       <c r="B182" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C182" s="41" t="s">
-        <v>393</v>
+      <c r="C182" s="42" t="s">
+        <v>408</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="20" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>4</v>
@@ -9806,15 +9885,15 @@
       <c r="B183" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="41" t="s">
-        <v>395</v>
+      <c r="C183" s="42" t="s">
+        <v>410</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="20" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>4</v>
@@ -9830,15 +9909,15 @@
       <c r="B184" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C184" s="41" t="s">
-        <v>397</v>
+      <c r="C184" s="42" t="s">
+        <v>412</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="20" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>4</v>
@@ -9854,15 +9933,15 @@
       <c r="B185" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C185" s="41" t="s">
-        <v>399</v>
+      <c r="C185" s="42" t="s">
+        <v>414</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="20" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>4</v>
@@ -9878,15 +9957,15 @@
       <c r="B186" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C186" s="41" t="s">
-        <v>401</v>
+      <c r="C186" s="42" t="s">
+        <v>416</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="20" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>4</v>
@@ -9902,15 +9981,15 @@
       <c r="B187" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C187" s="41" t="s">
-        <v>403</v>
+      <c r="C187" s="42" t="s">
+        <v>418</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="20" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>4</v>
@@ -9926,15 +10005,15 @@
       <c r="B188" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C188" s="41" t="s">
-        <v>405</v>
+      <c r="C188" s="42" t="s">
+        <v>420</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="20" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>4</v>
@@ -9950,15 +10029,15 @@
       <c r="B189" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="41" t="s">
-        <v>407</v>
+      <c r="C189" s="42" t="s">
+        <v>422</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="20" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>4</v>
@@ -9974,15 +10053,15 @@
       <c r="B190" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C190" s="41" t="s">
-        <v>409</v>
+      <c r="C190" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="20" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>4</v>
@@ -9998,15 +10077,15 @@
       <c r="B191" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C191" s="41" t="s">
-        <v>411</v>
+      <c r="C191" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="D191" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="20" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>4</v>
@@ -10022,15 +10101,15 @@
       <c r="B192" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="41" t="s">
-        <v>413</v>
+      <c r="C192" s="42" t="s">
+        <v>428</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="20" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>4</v>
@@ -10046,15 +10125,15 @@
       <c r="B193" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C193" s="41" t="s">
-        <v>415</v>
+      <c r="C193" s="42" t="s">
+        <v>430</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="20" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>4</v>
@@ -10070,15 +10149,15 @@
       <c r="B194" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C194" s="41" t="s">
-        <v>417</v>
+      <c r="C194" s="42" t="s">
+        <v>432</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="20" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>4</v>
@@ -10094,15 +10173,15 @@
       <c r="B195" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C195" s="41" t="s">
-        <v>419</v>
+      <c r="C195" s="42" t="s">
+        <v>434</v>
       </c>
       <c r="D195" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="20" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>4</v>
@@ -10118,15 +10197,15 @@
       <c r="B196" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C196" s="41" t="s">
-        <v>421</v>
+      <c r="C196" s="42" t="s">
+        <v>436</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="20" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>4</v>
@@ -10142,15 +10221,15 @@
       <c r="B197" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C197" s="41" t="s">
-        <v>423</v>
+      <c r="C197" s="42" t="s">
+        <v>438</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="20" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>4</v>
@@ -10166,15 +10245,15 @@
       <c r="B198" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C198" s="41" t="s">
-        <v>425</v>
+      <c r="C198" s="42" t="s">
+        <v>440</v>
       </c>
       <c r="D198" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="20" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>4</v>
@@ -10190,15 +10269,15 @@
       <c r="B199" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="41" t="s">
-        <v>427</v>
+      <c r="C199" s="42" t="s">
+        <v>442</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="20" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>4</v>
@@ -10214,15 +10293,15 @@
       <c r="B200" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C200" s="41" t="s">
-        <v>429</v>
+      <c r="C200" s="42" t="s">
+        <v>444</v>
       </c>
       <c r="D200" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="20" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>4</v>
@@ -10238,15 +10317,15 @@
       <c r="B201" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="41" t="s">
-        <v>431</v>
+      <c r="C201" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="20" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>4</v>
@@ -10262,15 +10341,15 @@
       <c r="B202" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C202" s="41" t="s">
-        <v>433</v>
+      <c r="C202" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="20" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>4</v>
@@ -10286,15 +10365,15 @@
       <c r="B203" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C203" s="41" t="s">
-        <v>435</v>
+      <c r="C203" s="42" t="s">
+        <v>450</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="20" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>4</v>
@@ -10310,15 +10389,15 @@
       <c r="B204" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C204" s="41" t="s">
-        <v>437</v>
+      <c r="C204" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="20" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>4</v>
@@ -10334,15 +10413,15 @@
       <c r="B205" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C205" s="42" t="s">
-        <v>439</v>
+      <c r="C205" s="43" t="s">
+        <v>454</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="24"/>
       <c r="F205" s="25" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>4</v>
@@ -10368,23 +10447,23 @@
       <c r="B207" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C207" s="39" t="s">
-        <v>73</v>
+      <c r="C207" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="F207" s="34" t="s">
-        <v>442</v>
+        <v>456</v>
+      </c>
+      <c r="F207" s="35" t="s">
+        <v>457</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H207" s="40" t="s">
-        <v>443</v>
+      <c r="H207" s="41" t="s">
+        <v>458</v>
       </c>
       <c r="I207" s="11" t="s">
         <v>0</v>
@@ -10404,15 +10483,15 @@
       <c r="B209" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C209" s="41" t="s">
-        <v>444</v>
+      <c r="C209" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="20" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>4</v>
@@ -10428,15 +10507,15 @@
       <c r="B210" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C210" s="41" t="s">
-        <v>446</v>
+      <c r="C210" s="42" t="s">
+        <v>461</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="20" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>4</v>
@@ -10452,15 +10531,15 @@
       <c r="B211" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C211" s="41" t="s">
-        <v>448</v>
+      <c r="C211" s="42" t="s">
+        <v>463</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="20" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>4</v>
@@ -10476,15 +10555,15 @@
       <c r="B212" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C212" s="41" t="s">
-        <v>450</v>
+      <c r="C212" s="42" t="s">
+        <v>465</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="20" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>4</v>
@@ -10500,15 +10579,15 @@
       <c r="B213" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C213" s="41" t="s">
-        <v>452</v>
+      <c r="C213" s="42" t="s">
+        <v>467</v>
       </c>
       <c r="D213" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="20" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>4</v>
@@ -10524,15 +10603,15 @@
       <c r="B214" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C214" s="41" t="s">
-        <v>454</v>
+      <c r="C214" s="42" t="s">
+        <v>469</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="20" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>4</v>
@@ -10548,15 +10627,15 @@
       <c r="B215" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C215" s="41" t="s">
-        <v>456</v>
+      <c r="C215" s="42" t="s">
+        <v>471</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="20" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>4</v>
@@ -10572,15 +10651,15 @@
       <c r="B216" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C216" s="41" t="s">
-        <v>458</v>
+      <c r="C216" s="42" t="s">
+        <v>473</v>
       </c>
       <c r="D216" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="20" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>4</v>
@@ -10596,15 +10675,15 @@
       <c r="B217" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C217" s="41" t="s">
-        <v>460</v>
+      <c r="C217" s="42" t="s">
+        <v>475</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="20" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>4</v>
@@ -10620,15 +10699,15 @@
       <c r="B218" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C218" s="41" t="s">
-        <v>462</v>
+      <c r="C218" s="42" t="s">
+        <v>477</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="20" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>4</v>
@@ -10644,15 +10723,15 @@
       <c r="B219" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C219" s="41" t="s">
-        <v>464</v>
+      <c r="C219" s="42" t="s">
+        <v>479</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="20" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>4</v>
@@ -10668,15 +10747,15 @@
       <c r="B220" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C220" s="41" t="s">
-        <v>466</v>
+      <c r="C220" s="42" t="s">
+        <v>481</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="20" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>4</v>
@@ -10692,15 +10771,15 @@
       <c r="B221" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="41" t="s">
-        <v>468</v>
+      <c r="C221" s="42" t="s">
+        <v>483</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="20" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>4</v>
@@ -10716,15 +10795,15 @@
       <c r="B222" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C222" s="41" t="s">
-        <v>470</v>
+      <c r="C222" s="42" t="s">
+        <v>485</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="20" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>4</v>
@@ -10740,15 +10819,15 @@
       <c r="B223" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C223" s="41" t="s">
-        <v>472</v>
+      <c r="C223" s="42" t="s">
+        <v>487</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="20" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>4</v>
@@ -10764,15 +10843,15 @@
       <c r="B224" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C224" s="41" t="s">
-        <v>474</v>
+      <c r="C224" s="42" t="s">
+        <v>489</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="20" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>4</v>
@@ -10788,15 +10867,15 @@
       <c r="B225" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="41" t="s">
-        <v>476</v>
+      <c r="C225" s="42" t="s">
+        <v>491</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="20" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>4</v>
@@ -10812,15 +10891,15 @@
       <c r="B226" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="41" t="s">
-        <v>478</v>
+      <c r="C226" s="42" t="s">
+        <v>493</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="20" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>4</v>
@@ -10836,15 +10915,15 @@
       <c r="B227" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C227" s="41" t="s">
-        <v>480</v>
+      <c r="C227" s="42" t="s">
+        <v>495</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="20" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>4</v>
@@ -10860,15 +10939,15 @@
       <c r="B228" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C228" s="41" t="s">
-        <v>482</v>
+      <c r="C228" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="20" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>4</v>
@@ -10884,15 +10963,15 @@
       <c r="B229" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C229" s="41" t="s">
-        <v>484</v>
+      <c r="C229" s="42" t="s">
+        <v>499</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="20" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>4</v>
@@ -10908,15 +10987,15 @@
       <c r="B230" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C230" s="41" t="s">
-        <v>486</v>
+      <c r="C230" s="42" t="s">
+        <v>501</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="20" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>4</v>
@@ -10932,15 +11011,15 @@
       <c r="B231" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C231" s="41" t="s">
-        <v>488</v>
+      <c r="C231" s="42" t="s">
+        <v>503</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="20" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>4</v>
@@ -10956,15 +11035,15 @@
       <c r="B232" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="41" t="s">
-        <v>490</v>
+      <c r="C232" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="20" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>4</v>
@@ -10980,15 +11059,15 @@
       <c r="B233" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C233" s="41" t="s">
-        <v>492</v>
+      <c r="C233" s="42" t="s">
+        <v>507</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="20" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>4</v>
@@ -11004,15 +11083,15 @@
       <c r="B234" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C234" s="42" t="s">
-        <v>494</v>
+      <c r="C234" s="43" t="s">
+        <v>509</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="24"/>
       <c r="F234" s="25" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="G234" s="23" t="s">
         <v>4</v>
@@ -11038,23 +11117,23 @@
       <c r="B236" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C236" s="39" t="s">
-        <v>75</v>
+      <c r="C236" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="F236" s="34" t="s">
-        <v>497</v>
+        <v>511</v>
+      </c>
+      <c r="F236" s="35" t="s">
+        <v>512</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H236" s="40" t="s">
-        <v>498</v>
+      <c r="H236" s="41" t="s">
+        <v>513</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>0</v>
@@ -11074,15 +11153,15 @@
       <c r="B238" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C238" s="41" t="s">
-        <v>499</v>
+      <c r="C238" s="42" t="s">
+        <v>514</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="20" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>4</v>
@@ -11098,15 +11177,15 @@
       <c r="B239" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C239" s="41" t="s">
-        <v>501</v>
+      <c r="C239" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="20" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>4</v>
@@ -11122,15 +11201,15 @@
       <c r="B240" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="41" t="s">
-        <v>503</v>
+      <c r="C240" s="42" t="s">
+        <v>518</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="20" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>4</v>
@@ -11146,15 +11225,15 @@
       <c r="B241" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C241" s="41" t="s">
-        <v>505</v>
+      <c r="C241" s="42" t="s">
+        <v>520</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="20" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>4</v>
@@ -11170,15 +11249,15 @@
       <c r="B242" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="41" t="s">
-        <v>507</v>
+      <c r="C242" s="42" t="s">
+        <v>522</v>
       </c>
       <c r="D242" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="20" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>4</v>
@@ -11194,15 +11273,15 @@
       <c r="B243" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C243" s="41" t="s">
-        <v>509</v>
+      <c r="C243" s="42" t="s">
+        <v>524</v>
       </c>
       <c r="D243" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="20" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>4</v>
@@ -11218,15 +11297,15 @@
       <c r="B244" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C244" s="41" t="s">
-        <v>511</v>
+      <c r="C244" s="42" t="s">
+        <v>526</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="20" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>4</v>
@@ -11242,15 +11321,15 @@
       <c r="B245" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C245" s="41" t="s">
-        <v>513</v>
+      <c r="C245" s="42" t="s">
+        <v>528</v>
       </c>
       <c r="D245" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="20" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>4</v>
@@ -11266,15 +11345,15 @@
       <c r="B246" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C246" s="41" t="s">
-        <v>515</v>
+      <c r="C246" s="42" t="s">
+        <v>530</v>
       </c>
       <c r="D246" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="20" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>4</v>
@@ -11290,15 +11369,15 @@
       <c r="B247" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C247" s="41" t="s">
-        <v>517</v>
+      <c r="C247" s="42" t="s">
+        <v>532</v>
       </c>
       <c r="D247" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="20" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>4</v>
@@ -11314,15 +11393,15 @@
       <c r="B248" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C248" s="41" t="s">
-        <v>519</v>
+      <c r="C248" s="42" t="s">
+        <v>534</v>
       </c>
       <c r="D248" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="20" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>4</v>
@@ -11338,15 +11417,15 @@
       <c r="B249" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C249" s="41" t="s">
-        <v>521</v>
+      <c r="C249" s="42" t="s">
+        <v>536</v>
       </c>
       <c r="D249" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="20" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>4</v>
@@ -11362,15 +11441,15 @@
       <c r="B250" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C250" s="41" t="s">
-        <v>523</v>
+      <c r="C250" s="42" t="s">
+        <v>538</v>
       </c>
       <c r="D250" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="20" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>4</v>
@@ -11386,15 +11465,15 @@
       <c r="B251" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C251" s="41" t="s">
-        <v>525</v>
+      <c r="C251" s="42" t="s">
+        <v>540</v>
       </c>
       <c r="D251" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="20" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>4</v>
@@ -11410,15 +11489,15 @@
       <c r="B252" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C252" s="41" t="s">
-        <v>527</v>
+      <c r="C252" s="42" t="s">
+        <v>542</v>
       </c>
       <c r="D252" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="20" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>4</v>
@@ -11434,15 +11513,15 @@
       <c r="B253" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C253" s="41" t="s">
-        <v>529</v>
+      <c r="C253" s="42" t="s">
+        <v>544</v>
       </c>
       <c r="D253" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="20" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>4</v>
@@ -11458,15 +11537,15 @@
       <c r="B254" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C254" s="41" t="s">
-        <v>531</v>
+      <c r="C254" s="42" t="s">
+        <v>546</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="20" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="G254" s="16" t="s">
         <v>4</v>
@@ -11482,15 +11561,15 @@
       <c r="B255" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C255" s="41" t="s">
-        <v>533</v>
+      <c r="C255" s="42" t="s">
+        <v>548</v>
       </c>
       <c r="D255" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="20" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>4</v>
@@ -11506,15 +11585,15 @@
       <c r="B256" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C256" s="41" t="s">
-        <v>535</v>
+      <c r="C256" s="42" t="s">
+        <v>550</v>
       </c>
       <c r="D256" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="20" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>4</v>
@@ -11530,15 +11609,15 @@
       <c r="B257" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="41" t="s">
-        <v>537</v>
+      <c r="C257" s="42" t="s">
+        <v>552</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="20" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>4</v>
@@ -11554,15 +11633,15 @@
       <c r="B258" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C258" s="41" t="s">
-        <v>539</v>
+      <c r="C258" s="42" t="s">
+        <v>554</v>
       </c>
       <c r="D258" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="20" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>4</v>
@@ -11578,15 +11657,15 @@
       <c r="B259" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C259" s="41" t="s">
-        <v>541</v>
+      <c r="C259" s="42" t="s">
+        <v>556</v>
       </c>
       <c r="D259" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="20" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>4</v>
@@ -11602,15 +11681,15 @@
       <c r="B260" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="41" t="s">
-        <v>543</v>
+      <c r="C260" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="20" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>4</v>
@@ -11626,15 +11705,15 @@
       <c r="B261" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C261" s="41" t="s">
-        <v>545</v>
+      <c r="C261" s="42" t="s">
+        <v>560</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="20" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>4</v>
@@ -11650,15 +11729,15 @@
       <c r="B262" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C262" s="41" t="s">
-        <v>547</v>
+      <c r="C262" s="42" t="s">
+        <v>562</v>
       </c>
       <c r="D262" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="20" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>4</v>
@@ -11674,15 +11753,15 @@
       <c r="B263" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C263" s="42" t="s">
-        <v>549</v>
+      <c r="C263" s="43" t="s">
+        <v>564</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E263" s="24"/>
       <c r="F263" s="25" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="G263" s="23" t="s">
         <v>4</v>
@@ -11761,14 +11840,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -11799,14 +11878,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -11825,14 +11904,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -11851,14 +11930,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -11877,14 +11956,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -11903,14 +11982,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -11929,14 +12008,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -11955,14 +12034,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -11981,14 +12060,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -12007,14 +12086,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="17" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -12033,14 +12112,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="17" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -12059,14 +12138,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="17" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -12085,14 +12164,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="17" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -12111,14 +12190,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="17" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -12137,14 +12216,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="17" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -12163,14 +12242,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="17" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -12189,14 +12268,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="17" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -12215,14 +12294,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="17" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -12241,14 +12320,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="17" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -12267,14 +12346,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="17" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -12293,14 +12372,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="17" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -12319,14 +12398,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="17" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -12345,14 +12424,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="17" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -12371,14 +12450,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -12397,14 +12476,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -12423,14 +12502,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="17" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -12449,14 +12528,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="43" t="s">
-        <v>603</v>
+      <c r="F31" s="33" t="s">
+        <v>618</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -12514,14 +12593,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -13163,13 +13242,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
@@ -13810,13 +13889,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
@@ -14457,13 +14536,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>

--- a/dev.bitstationary/-a/-a.xlsx
+++ b/dev.bitstationary/-a/-a.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="630">
   <si>
     <t>-</t>
   </si>
@@ -41,12 +41,21 @@
     <t>snippet</t>
   </si>
   <si>
+    <t>Internal</t>
+  </si>
+  <si>
     <t>meet</t>
   </si>
   <si>
+    <t>Spiral</t>
+  </si>
+  <si>
     <t>allot</t>
   </si>
   <si>
+    <t>Decimal</t>
+  </si>
+  <si>
     <t>chart</t>
   </si>
   <si>
@@ -110,10 +119,19 @@
     <t>craft</t>
   </si>
   <si>
+    <t>Moral</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>Final</t>
+  </si>
+  <si>
     <t>start</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
   <si>
     <t>iceKnives32</t>
@@ -2099,7 +2117,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2113,6 +2131,9 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2121,9 +2142,6 @@
     </xf>
     <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2466,7 +2484,9 @@
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
       </c>
@@ -2484,13 +2504,15 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
@@ -2508,13 +2530,15 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
@@ -2556,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
@@ -2580,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2604,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
@@ -2628,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
@@ -2652,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
@@ -2676,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
@@ -2700,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
@@ -2724,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
@@ -2748,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
@@ -2772,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
@@ -2796,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
@@ -2820,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
@@ -2844,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
@@ -2868,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -2892,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -2916,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -2940,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
@@ -2964,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
@@ -2988,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
@@ -3012,13 +3036,15 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
       </c>
@@ -3036,13 +3062,15 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
       </c>
@@ -3060,13 +3088,15 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>
@@ -3127,14 +3157,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -3165,14 +3195,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -3191,14 +3221,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -3217,14 +3247,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -3731,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>
@@ -3749,14 +3779,14 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>4</v>
@@ -3786,15 +3816,15 @@
       <c r="B35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>41</v>
+      <c r="C35" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
@@ -3812,15 +3842,15 @@
       <c r="B36" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>43</v>
+      <c r="C36" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
@@ -3838,15 +3868,15 @@
       <c r="B37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>45</v>
+      <c r="C37" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
@@ -3864,15 +3894,15 @@
       <c r="B38" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>47</v>
+      <c r="C38" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
@@ -3890,15 +3920,15 @@
       <c r="B39" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>49</v>
+      <c r="C39" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
@@ -3916,15 +3946,15 @@
       <c r="B40" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="30" t="s">
-        <v>51</v>
+      <c r="C40" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
@@ -3942,15 +3972,15 @@
       <c r="B41" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>53</v>
+      <c r="C41" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
@@ -3968,15 +3998,15 @@
       <c r="B42" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>55</v>
+      <c r="C42" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
@@ -3994,7 +4024,7 @@
       <c r="B43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4046,7 @@
       <c r="B44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
@@ -4038,7 +4068,7 @@
       <c r="B45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="31"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
@@ -4060,7 +4090,7 @@
       <c r="B46" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
@@ -4082,7 +4112,7 @@
       <c r="B47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
@@ -4104,7 +4134,7 @@
       <c r="B48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="31"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
@@ -4126,7 +4156,7 @@
       <c r="B49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
@@ -4148,7 +4178,7 @@
       <c r="B50" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="31"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
@@ -4170,7 +4200,7 @@
       <c r="B51" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
@@ -4192,7 +4222,7 @@
       <c r="B52" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="31"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
@@ -4214,7 +4244,7 @@
       <c r="B53" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="31"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
@@ -4236,7 +4266,7 @@
       <c r="B54" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="31"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
@@ -4258,7 +4288,7 @@
       <c r="B55" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
@@ -4280,7 +4310,7 @@
       <c r="B56" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="31"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
@@ -4302,7 +4332,7 @@
       <c r="B57" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
@@ -4324,7 +4354,7 @@
       <c r="B58" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
@@ -4346,7 +4376,7 @@
       <c r="B59" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
@@ -4368,15 +4398,15 @@
       <c r="B60" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>57</v>
+      <c r="C60" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="33" t="s">
-        <v>58</v>
+      <c r="F60" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
@@ -4395,14 +4425,14 @@
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
@@ -4432,15 +4462,15 @@
       <c r="B64" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>60</v>
+      <c r="C64" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
@@ -4458,15 +4488,15 @@
       <c r="B65" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>62</v>
+      <c r="C65" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
@@ -4484,15 +4514,15 @@
       <c r="B66" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="30" t="s">
-        <v>64</v>
+      <c r="C66" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
@@ -4510,7 +4540,7 @@
       <c r="B67" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="30"/>
+      <c r="C67" s="31"/>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4562,7 @@
       <c r="B68" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="30"/>
+      <c r="C68" s="31"/>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
@@ -4554,7 +4584,7 @@
       <c r="B69" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="30"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
@@ -4576,7 +4606,7 @@
       <c r="B70" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="30"/>
+      <c r="C70" s="31"/>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
@@ -4598,7 +4628,7 @@
       <c r="B71" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="30"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
@@ -4620,7 +4650,7 @@
       <c r="B72" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="31"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
@@ -4642,7 +4672,7 @@
       <c r="B73" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
@@ -4664,7 +4694,7 @@
       <c r="B74" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="31"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
@@ -4686,7 +4716,7 @@
       <c r="B75" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="31"/>
+      <c r="C75" s="32"/>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4738,7 @@
       <c r="B76" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
@@ -4730,7 +4760,7 @@
       <c r="B77" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="31"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
@@ -4752,7 +4782,7 @@
       <c r="B78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
@@ -4774,7 +4804,7 @@
       <c r="B79" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="31"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
@@ -4796,7 +4826,7 @@
       <c r="B80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="31"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
@@ -4818,7 +4848,7 @@
       <c r="B81" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C81" s="31"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
@@ -4840,7 +4870,7 @@
       <c r="B82" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
@@ -4862,7 +4892,7 @@
       <c r="B83" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="31"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
@@ -4884,7 +4914,7 @@
       <c r="B84" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="31"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
@@ -4906,7 +4936,7 @@
       <c r="B85" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="31"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
@@ -4928,7 +4958,7 @@
       <c r="B86" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="31"/>
+      <c r="C86" s="32"/>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
@@ -4950,7 +4980,7 @@
       <c r="B87" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="31"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +5002,7 @@
       <c r="B88" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
@@ -4994,15 +5024,15 @@
       <c r="B89" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="32" t="s">
-        <v>66</v>
+      <c r="C89" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="33" t="s">
-        <v>67</v>
+      <c r="F89" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
@@ -5021,14 +5051,14 @@
         <v>0</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
@@ -5058,15 +5088,15 @@
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="30" t="s">
-        <v>69</v>
+      <c r="C93" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
@@ -5084,7 +5114,7 @@
       <c r="B94" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="30"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +5136,7 @@
       <c r="B95" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="30"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
@@ -5128,7 +5158,7 @@
       <c r="B96" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="30"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5180,7 @@
       <c r="B97" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C97" s="30"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="16" t="s">
         <v>2</v>
       </c>
@@ -5172,7 +5202,7 @@
       <c r="B98" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="30"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
@@ -5194,7 +5224,7 @@
       <c r="B99" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C99" s="30"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
@@ -5216,7 +5246,7 @@
       <c r="B100" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="30"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5268,7 @@
       <c r="B101" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="31"/>
+      <c r="C101" s="32"/>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5290,7 @@
       <c r="B102" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="31"/>
+      <c r="C102" s="32"/>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
@@ -5282,7 +5312,7 @@
       <c r="B103" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="31"/>
+      <c r="C103" s="32"/>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
@@ -5304,7 +5334,7 @@
       <c r="B104" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="31"/>
+      <c r="C104" s="32"/>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
@@ -5326,7 +5356,7 @@
       <c r="B105" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="31"/>
+      <c r="C105" s="32"/>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
@@ -5348,7 +5378,7 @@
       <c r="B106" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="31"/>
+      <c r="C106" s="32"/>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
@@ -5370,7 +5400,7 @@
       <c r="B107" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="31"/>
+      <c r="C107" s="32"/>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
@@ -5392,7 +5422,7 @@
       <c r="B108" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="31"/>
+      <c r="C108" s="32"/>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
@@ -5414,7 +5444,7 @@
       <c r="B109" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="31"/>
+      <c r="C109" s="32"/>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
@@ -5436,7 +5466,7 @@
       <c r="B110" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="31"/>
+      <c r="C110" s="32"/>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
@@ -5458,7 +5488,7 @@
       <c r="B111" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="31"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
@@ -5480,7 +5510,7 @@
       <c r="B112" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C112" s="31"/>
+      <c r="C112" s="32"/>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
@@ -5502,7 +5532,7 @@
       <c r="B113" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="31"/>
+      <c r="C113" s="32"/>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
@@ -5524,7 +5554,7 @@
       <c r="B114" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="31"/>
+      <c r="C114" s="32"/>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5576,7 @@
       <c r="B115" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="31"/>
+      <c r="C115" s="32"/>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
@@ -5568,7 +5598,7 @@
       <c r="B116" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="31"/>
+      <c r="C116" s="32"/>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +5620,7 @@
       <c r="B117" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="31"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
@@ -5612,15 +5642,15 @@
       <c r="B118" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="32" t="s">
-        <v>71</v>
+      <c r="C118" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="33" t="s">
-        <v>72</v>
+      <c r="F118" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
@@ -5703,16 +5733,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -5743,14 +5773,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="38" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -5769,14 +5799,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="38" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -5795,14 +5825,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -5821,14 +5851,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -5847,14 +5877,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="38" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -5873,14 +5903,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="38" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -5899,14 +5929,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -5925,14 +5955,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -5951,14 +5981,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -5977,14 +6007,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -6003,14 +6033,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -6029,14 +6059,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -6055,14 +6085,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -6081,14 +6111,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -6107,14 +6137,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -6133,14 +6163,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -6159,14 +6189,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -6185,14 +6215,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -6211,14 +6241,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -6237,14 +6267,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -6263,14 +6293,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -6289,14 +6319,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -6315,14 +6345,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -6341,14 +6371,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -6367,14 +6397,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -6393,14 +6423,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25" t="s">
-        <v>127</v>
+      <c r="F31" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -6428,22 +6458,22 @@
         <v>0</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>0</v>
@@ -6464,14 +6494,14 @@
         <v>0</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
@@ -6488,14 +6518,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
@@ -6512,14 +6542,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
@@ -6536,14 +6566,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
@@ -6560,14 +6590,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
@@ -6584,14 +6614,14 @@
         <v>0</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
@@ -6608,14 +6638,14 @@
         <v>0</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
@@ -6632,14 +6662,14 @@
         <v>0</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
@@ -6656,14 +6686,14 @@
         <v>0</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>4</v>
@@ -6680,14 +6710,14 @@
         <v>0</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>4</v>
@@ -6704,14 +6734,14 @@
         <v>0</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>4</v>
@@ -6728,14 +6758,14 @@
         <v>0</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>4</v>
@@ -6752,14 +6782,14 @@
         <v>0</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>4</v>
@@ -6776,14 +6806,14 @@
         <v>0</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>4</v>
@@ -6800,14 +6830,14 @@
         <v>0</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>4</v>
@@ -6824,14 +6854,14 @@
         <v>0</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>4</v>
@@ -6848,14 +6878,14 @@
         <v>0</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>4</v>
@@ -6872,14 +6902,14 @@
         <v>0</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>4</v>
@@ -6896,14 +6926,14 @@
         <v>0</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>4</v>
@@ -6920,14 +6950,14 @@
         <v>0</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>4</v>
@@ -6944,14 +6974,14 @@
         <v>0</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>4</v>
@@ -6968,14 +6998,14 @@
         <v>0</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>4</v>
@@ -6992,14 +7022,14 @@
         <v>0</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="20" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>4</v>
@@ -7016,14 +7046,14 @@
         <v>0</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="20" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>4</v>
@@ -7040,14 +7070,14 @@
         <v>0</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>4</v>
@@ -7064,14 +7094,14 @@
         <v>0</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="25" t="s">
-        <v>182</v>
+      <c r="F60" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
@@ -7098,22 +7128,22 @@
         <v>0</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>0</v>
@@ -7134,14 +7164,14 @@
         <v>0</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
@@ -7158,14 +7188,14 @@
         <v>0</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
@@ -7182,14 +7212,14 @@
         <v>0</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
@@ -7206,14 +7236,14 @@
         <v>0</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>4</v>
@@ -7230,14 +7260,14 @@
         <v>0</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>4</v>
@@ -7254,14 +7284,14 @@
         <v>0</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>4</v>
@@ -7278,14 +7308,14 @@
         <v>0</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>4</v>
@@ -7302,14 +7332,14 @@
         <v>0</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="20" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>4</v>
@@ -7326,14 +7356,14 @@
         <v>0</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="20" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>4</v>
@@ -7350,14 +7380,14 @@
         <v>0</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>4</v>
@@ -7374,14 +7404,14 @@
         <v>0</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>4</v>
@@ -7398,14 +7428,14 @@
         <v>0</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>4</v>
@@ -7422,14 +7452,14 @@
         <v>0</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>4</v>
@@ -7446,14 +7476,14 @@
         <v>0</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>4</v>
@@ -7470,14 +7500,14 @@
         <v>0</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>4</v>
@@ -7494,14 +7524,14 @@
         <v>0</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>4</v>
@@ -7518,14 +7548,14 @@
         <v>0</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>4</v>
@@ -7542,14 +7572,14 @@
         <v>0</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>4</v>
@@ -7566,14 +7596,14 @@
         <v>0</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>4</v>
@@ -7590,14 +7620,14 @@
         <v>0</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>4</v>
@@ -7614,14 +7644,14 @@
         <v>0</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>4</v>
@@ -7638,14 +7668,14 @@
         <v>0</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>4</v>
@@ -7662,14 +7692,14 @@
         <v>0</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>4</v>
@@ -7686,14 +7716,14 @@
         <v>0</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="20" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>4</v>
@@ -7710,14 +7740,14 @@
         <v>0</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="20" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>4</v>
@@ -7734,14 +7764,14 @@
         <v>0</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="25" t="s">
-        <v>237</v>
+      <c r="F89" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
@@ -7768,22 +7798,22 @@
         <v>0</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>0</v>
@@ -7804,14 +7834,14 @@
         <v>0</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="20" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
@@ -7828,14 +7858,14 @@
         <v>0</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>4</v>
@@ -7852,14 +7882,14 @@
         <v>0</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>4</v>
@@ -7876,14 +7906,14 @@
         <v>0</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>4</v>
@@ -7900,14 +7930,14 @@
         <v>0</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>4</v>
@@ -7924,14 +7954,14 @@
         <v>0</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>4</v>
@@ -7948,14 +7978,14 @@
         <v>0</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="20" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>4</v>
@@ -7972,14 +8002,14 @@
         <v>0</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="20" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>4</v>
@@ -7996,14 +8026,14 @@
         <v>0</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="20" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>4</v>
@@ -8020,14 +8050,14 @@
         <v>0</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>4</v>
@@ -8044,14 +8074,14 @@
         <v>0</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="20" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>4</v>
@@ -8068,14 +8098,14 @@
         <v>0</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>4</v>
@@ -8092,14 +8122,14 @@
         <v>0</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="20" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>4</v>
@@ -8116,14 +8146,14 @@
         <v>0</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>4</v>
@@ -8140,14 +8170,14 @@
         <v>0</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>4</v>
@@ -8164,14 +8194,14 @@
         <v>0</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="20" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>4</v>
@@ -8188,14 +8218,14 @@
         <v>0</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>4</v>
@@ -8212,14 +8242,14 @@
         <v>0</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="20" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>4</v>
@@ -8236,14 +8266,14 @@
         <v>0</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="20" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>4</v>
@@ -8260,14 +8290,14 @@
         <v>0</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>4</v>
@@ -8284,14 +8314,14 @@
         <v>0</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="20" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>4</v>
@@ -8308,14 +8338,14 @@
         <v>0</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="20" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>4</v>
@@ -8332,14 +8362,14 @@
         <v>0</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>4</v>
@@ -8356,14 +8386,14 @@
         <v>0</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="20" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>4</v>
@@ -8380,14 +8410,14 @@
         <v>0</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="20" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>4</v>
@@ -8404,14 +8434,14 @@
         <v>0</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="25" t="s">
-        <v>291</v>
+      <c r="F118" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
@@ -8438,22 +8468,22 @@
         <v>0</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H120" s="41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>0</v>
@@ -8474,14 +8504,14 @@
         <v>0</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="20" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>4</v>
@@ -8498,14 +8528,14 @@
         <v>0</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="20" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>4</v>
@@ -8522,14 +8552,14 @@
         <v>0</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="20" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>4</v>
@@ -8546,14 +8576,14 @@
         <v>0</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="20" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>4</v>
@@ -8570,14 +8600,14 @@
         <v>0</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="20" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>4</v>
@@ -8594,14 +8624,14 @@
         <v>0</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="20" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>4</v>
@@ -8618,14 +8648,14 @@
         <v>0</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="20" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>4</v>
@@ -8642,14 +8672,14 @@
         <v>0</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="20" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G129" s="16" t="s">
         <v>4</v>
@@ -8666,14 +8696,14 @@
         <v>0</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="20" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>4</v>
@@ -8690,14 +8720,14 @@
         <v>0</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="20" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>4</v>
@@ -8714,14 +8744,14 @@
         <v>0</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="20" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>4</v>
@@ -8738,14 +8768,14 @@
         <v>0</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="20" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>4</v>
@@ -8762,14 +8792,14 @@
         <v>0</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="20" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>4</v>
@@ -8786,14 +8816,14 @@
         <v>0</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="20" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>4</v>
@@ -8810,14 +8840,14 @@
         <v>0</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="20" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G136" s="16" t="s">
         <v>4</v>
@@ -8834,14 +8864,14 @@
         <v>0</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="20" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>4</v>
@@ -8858,14 +8888,14 @@
         <v>0</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="20" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>4</v>
@@ -8882,14 +8912,14 @@
         <v>0</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="20" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>4</v>
@@ -8906,14 +8936,14 @@
         <v>0</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="20" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>4</v>
@@ -8930,14 +8960,14 @@
         <v>0</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="20" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>4</v>
@@ -8954,14 +8984,14 @@
         <v>0</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="20" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>4</v>
@@ -8978,14 +9008,14 @@
         <v>0</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="20" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>4</v>
@@ -9002,14 +9032,14 @@
         <v>0</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="20" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>4</v>
@@ -9026,14 +9056,14 @@
         <v>0</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>4</v>
@@ -9050,14 +9080,14 @@
         <v>0</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="20" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>4</v>
@@ -9074,14 +9104,14 @@
         <v>0</v>
       </c>
       <c r="C147" s="43" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="25" t="s">
-        <v>346</v>
+      <c r="F147" s="30" t="s">
+        <v>352</v>
       </c>
       <c r="G147" s="23" t="s">
         <v>4</v>
@@ -9108,22 +9138,22 @@
         <v>0</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>0</v>
@@ -9144,14 +9174,14 @@
         <v>0</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="20" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>4</v>
@@ -9168,14 +9198,14 @@
         <v>0</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="20" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>4</v>
@@ -9192,14 +9222,14 @@
         <v>0</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="20" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>4</v>
@@ -9216,14 +9246,14 @@
         <v>0</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="20" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>4</v>
@@ -9240,14 +9270,14 @@
         <v>0</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="20" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>4</v>
@@ -9264,14 +9294,14 @@
         <v>0</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="20" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>4</v>
@@ -9288,14 +9318,14 @@
         <v>0</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>4</v>
@@ -9312,14 +9342,14 @@
         <v>0</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>4</v>
@@ -9336,14 +9366,14 @@
         <v>0</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>4</v>
@@ -9360,14 +9390,14 @@
         <v>0</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>4</v>
@@ -9384,14 +9414,14 @@
         <v>0</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>4</v>
@@ -9408,14 +9438,14 @@
         <v>0</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>4</v>
@@ -9432,14 +9462,14 @@
         <v>0</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="20" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>4</v>
@@ -9456,14 +9486,14 @@
         <v>0</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="20" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>4</v>
@@ -9480,14 +9510,14 @@
         <v>0</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>4</v>
@@ -9504,14 +9534,14 @@
         <v>0</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="20" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>4</v>
@@ -9528,14 +9558,14 @@
         <v>0</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="20" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>4</v>
@@ -9552,14 +9582,14 @@
         <v>0</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="20" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>4</v>
@@ -9576,14 +9606,14 @@
         <v>0</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>4</v>
@@ -9600,14 +9630,14 @@
         <v>0</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="20" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>4</v>
@@ -9624,14 +9654,14 @@
         <v>0</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="20" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>4</v>
@@ -9648,14 +9678,14 @@
         <v>0</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="20" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>4</v>
@@ -9672,14 +9702,14 @@
         <v>0</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="20" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>4</v>
@@ -9696,14 +9726,14 @@
         <v>0</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>4</v>
@@ -9720,14 +9750,14 @@
         <v>0</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="20" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>4</v>
@@ -9744,14 +9774,14 @@
         <v>0</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D176" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E176" s="24"/>
-      <c r="F176" s="25" t="s">
-        <v>400</v>
+      <c r="F176" s="30" t="s">
+        <v>406</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>4</v>
@@ -9778,22 +9808,22 @@
         <v>0</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>0</v>
@@ -9814,14 +9844,14 @@
         <v>0</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="20" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>4</v>
@@ -9838,14 +9868,14 @@
         <v>0</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="20" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>4</v>
@@ -9862,14 +9892,14 @@
         <v>0</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="20" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>4</v>
@@ -9886,14 +9916,14 @@
         <v>0</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="20" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>4</v>
@@ -9910,14 +9940,14 @@
         <v>0</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="20" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>4</v>
@@ -9934,14 +9964,14 @@
         <v>0</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="20" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>4</v>
@@ -9958,14 +9988,14 @@
         <v>0</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="20" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>4</v>
@@ -9982,14 +10012,14 @@
         <v>0</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="20" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>4</v>
@@ -10006,14 +10036,14 @@
         <v>0</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="20" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>4</v>
@@ -10030,14 +10060,14 @@
         <v>0</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="20" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>4</v>
@@ -10054,14 +10084,14 @@
         <v>0</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="20" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>4</v>
@@ -10078,14 +10108,14 @@
         <v>0</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D191" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="20" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>4</v>
@@ -10102,14 +10132,14 @@
         <v>0</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="20" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>4</v>
@@ -10126,14 +10156,14 @@
         <v>0</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>4</v>
@@ -10150,14 +10180,14 @@
         <v>0</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="20" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>4</v>
@@ -10174,14 +10204,14 @@
         <v>0</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D195" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="20" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>4</v>
@@ -10198,14 +10228,14 @@
         <v>0</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="20" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>4</v>
@@ -10222,14 +10252,14 @@
         <v>0</v>
       </c>
       <c r="C197" s="42" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="20" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>4</v>
@@ -10246,14 +10276,14 @@
         <v>0</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D198" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>4</v>
@@ -10270,14 +10300,14 @@
         <v>0</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="20" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>4</v>
@@ -10294,14 +10324,14 @@
         <v>0</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D200" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="20" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>4</v>
@@ -10318,14 +10348,14 @@
         <v>0</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="20" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>4</v>
@@ -10342,14 +10372,14 @@
         <v>0</v>
       </c>
       <c r="C202" s="42" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="20" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>4</v>
@@ -10366,14 +10396,14 @@
         <v>0</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="20" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>4</v>
@@ -10390,14 +10420,14 @@
         <v>0</v>
       </c>
       <c r="C204" s="42" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="20" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>4</v>
@@ -10414,14 +10444,14 @@
         <v>0</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="24"/>
-      <c r="F205" s="25" t="s">
-        <v>455</v>
+      <c r="F205" s="30" t="s">
+        <v>461</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>4</v>
@@ -10448,22 +10478,22 @@
         <v>0</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H207" s="41" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="I207" s="11" t="s">
         <v>0</v>
@@ -10484,14 +10514,14 @@
         <v>0</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="20" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>4</v>
@@ -10508,14 +10538,14 @@
         <v>0</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="20" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>4</v>
@@ -10532,14 +10562,14 @@
         <v>0</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="20" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>4</v>
@@ -10556,14 +10586,14 @@
         <v>0</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="20" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>4</v>
@@ -10580,14 +10610,14 @@
         <v>0</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D213" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="20" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>4</v>
@@ -10604,14 +10634,14 @@
         <v>0</v>
       </c>
       <c r="C214" s="42" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="20" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>4</v>
@@ -10628,14 +10658,14 @@
         <v>0</v>
       </c>
       <c r="C215" s="42" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="20" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>4</v>
@@ -10652,14 +10682,14 @@
         <v>0</v>
       </c>
       <c r="C216" s="42" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D216" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="20" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>4</v>
@@ -10676,14 +10706,14 @@
         <v>0</v>
       </c>
       <c r="C217" s="42" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="20" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>4</v>
@@ -10700,14 +10730,14 @@
         <v>0</v>
       </c>
       <c r="C218" s="42" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="20" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>4</v>
@@ -10724,14 +10754,14 @@
         <v>0</v>
       </c>
       <c r="C219" s="42" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="20" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>4</v>
@@ -10748,14 +10778,14 @@
         <v>0</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="20" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>4</v>
@@ -10772,14 +10802,14 @@
         <v>0</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="20" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>4</v>
@@ -10796,14 +10826,14 @@
         <v>0</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="20" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>4</v>
@@ -10820,14 +10850,14 @@
         <v>0</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="20" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>4</v>
@@ -10844,14 +10874,14 @@
         <v>0</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="20" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>4</v>
@@ -10868,14 +10898,14 @@
         <v>0</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="20" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>4</v>
@@ -10892,14 +10922,14 @@
         <v>0</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="20" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>4</v>
@@ -10916,14 +10946,14 @@
         <v>0</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="20" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>4</v>
@@ -10940,14 +10970,14 @@
         <v>0</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="20" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>4</v>
@@ -10964,14 +10994,14 @@
         <v>0</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="20" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>4</v>
@@ -10988,14 +11018,14 @@
         <v>0</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="20" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>4</v>
@@ -11012,14 +11042,14 @@
         <v>0</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="20" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>4</v>
@@ -11036,14 +11066,14 @@
         <v>0</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="20" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>4</v>
@@ -11060,14 +11090,14 @@
         <v>0</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="20" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>4</v>
@@ -11084,14 +11114,14 @@
         <v>0</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="24"/>
-      <c r="F234" s="25" t="s">
-        <v>510</v>
+      <c r="F234" s="30" t="s">
+        <v>516</v>
       </c>
       <c r="G234" s="23" t="s">
         <v>4</v>
@@ -11118,22 +11148,22 @@
         <v>0</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F236" s="35" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H236" s="41" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>0</v>
@@ -11154,14 +11184,14 @@
         <v>0</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="20" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>4</v>
@@ -11178,14 +11208,14 @@
         <v>0</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="20" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>4</v>
@@ -11202,14 +11232,14 @@
         <v>0</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="20" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>4</v>
@@ -11226,14 +11256,14 @@
         <v>0</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="20" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>4</v>
@@ -11250,14 +11280,14 @@
         <v>0</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D242" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="20" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>4</v>
@@ -11274,14 +11304,14 @@
         <v>0</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D243" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="20" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>4</v>
@@ -11298,14 +11328,14 @@
         <v>0</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="20" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>4</v>
@@ -11322,14 +11352,14 @@
         <v>0</v>
       </c>
       <c r="C245" s="42" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D245" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="20" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>4</v>
@@ -11346,14 +11376,14 @@
         <v>0</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D246" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="20" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>4</v>
@@ -11370,14 +11400,14 @@
         <v>0</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D247" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="20" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>4</v>
@@ -11394,14 +11424,14 @@
         <v>0</v>
       </c>
       <c r="C248" s="42" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D248" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="20" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>4</v>
@@ -11418,14 +11448,14 @@
         <v>0</v>
       </c>
       <c r="C249" s="42" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D249" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="20" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>4</v>
@@ -11442,14 +11472,14 @@
         <v>0</v>
       </c>
       <c r="C250" s="42" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D250" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="20" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>4</v>
@@ -11466,14 +11496,14 @@
         <v>0</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D251" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="20" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>4</v>
@@ -11490,14 +11520,14 @@
         <v>0</v>
       </c>
       <c r="C252" s="42" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D252" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="20" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>4</v>
@@ -11514,14 +11544,14 @@
         <v>0</v>
       </c>
       <c r="C253" s="42" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D253" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="20" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>4</v>
@@ -11538,14 +11568,14 @@
         <v>0</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="20" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G254" s="16" t="s">
         <v>4</v>
@@ -11562,14 +11592,14 @@
         <v>0</v>
       </c>
       <c r="C255" s="42" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D255" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="20" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>4</v>
@@ -11586,14 +11616,14 @@
         <v>0</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D256" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="20" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>4</v>
@@ -11610,14 +11640,14 @@
         <v>0</v>
       </c>
       <c r="C257" s="42" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="20" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>4</v>
@@ -11634,14 +11664,14 @@
         <v>0</v>
       </c>
       <c r="C258" s="42" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D258" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="20" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>4</v>
@@ -11658,14 +11688,14 @@
         <v>0</v>
       </c>
       <c r="C259" s="42" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D259" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="20" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>4</v>
@@ -11682,14 +11712,14 @@
         <v>0</v>
       </c>
       <c r="C260" s="42" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="20" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>4</v>
@@ -11706,14 +11736,14 @@
         <v>0</v>
       </c>
       <c r="C261" s="42" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="20" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>4</v>
@@ -11730,14 +11760,14 @@
         <v>0</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D262" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="20" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>4</v>
@@ -11754,14 +11784,14 @@
         <v>0</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E263" s="24"/>
-      <c r="F263" s="25" t="s">
-        <v>565</v>
+      <c r="F263" s="30" t="s">
+        <v>571</v>
       </c>
       <c r="G263" s="23" t="s">
         <v>4</v>
@@ -11840,14 +11870,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -11878,14 +11908,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -11904,14 +11934,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -11930,14 +11960,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -11956,14 +11986,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -11982,14 +12012,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -12008,14 +12038,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -12034,14 +12064,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -12060,14 +12090,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -12086,14 +12116,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="17" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -12112,14 +12142,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="17" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -12138,14 +12168,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="17" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -12164,14 +12194,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="17" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -12190,14 +12220,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="17" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -12216,14 +12246,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="17" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -12242,14 +12272,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="17" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -12268,14 +12298,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="17" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -12294,14 +12324,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="17" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -12320,14 +12350,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="17" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -12346,14 +12376,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="17" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -12372,14 +12402,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="17" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -12398,14 +12428,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="17" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -12424,14 +12454,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="17" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -12450,14 +12480,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -12476,14 +12506,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -12502,14 +12532,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="17" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -12528,14 +12558,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="33" t="s">
-        <v>618</v>
+      <c r="F31" s="25" t="s">
+        <v>624</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -12593,14 +12623,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -13185,7 +13215,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>
@@ -13242,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -13832,7 +13862,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>
@@ -13889,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -14479,7 +14509,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>
@@ -14536,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -15126,7 +15156,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="23" t="s">
         <v>4</v>
       </c>

--- a/dev.bitstationary/-a/-a.xlsx
+++ b/dev.bitstationary/-a/-a.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="635">
   <si>
     <t>-</t>
   </si>
@@ -59,12 +59,21 @@
     <t>chart</t>
   </si>
   <si>
+    <t>Equal</t>
+  </si>
+  <si>
     <t>emit</t>
   </si>
   <si>
+    <t>Incremental</t>
+  </si>
+  <si>
     <t>exist</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>closet</t>
   </si>
   <si>
@@ -110,12 +119,21 @@
     <t>extract</t>
   </si>
   <si>
+    <t>Vital</t>
+  </si>
+  <si>
     <t>admit</t>
   </si>
   <si>
+    <t>Decremental</t>
+  </si>
+  <si>
     <t>list</t>
   </si>
   <si>
+    <t>Overall</t>
+  </si>
+  <si>
     <t>craft</t>
   </si>
   <si>
@@ -717,9 +735,6 @@
   </si>
   <si>
     <t>_stop</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>_opposite</t>
@@ -2562,7 +2577,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
       </c>
@@ -2580,13 +2597,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
       </c>
@@ -2604,13 +2623,15 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
@@ -2652,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
@@ -2676,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
@@ -2700,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
@@ -2724,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
@@ -2748,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
@@ -2772,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
@@ -2796,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
@@ -2820,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
@@ -2844,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
@@ -2868,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
@@ -2892,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -2916,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -2940,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -2964,13 +2985,15 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
       </c>
@@ -2988,13 +3011,15 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
       </c>
@@ -3012,13 +3037,15 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
       </c>
@@ -3036,14 +3063,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -3062,14 +3089,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -3088,14 +3115,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -3157,14 +3184,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -3195,14 +3222,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -3221,14 +3248,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -3247,14 +3274,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -3779,14 +3806,14 @@
         <v>0</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>4</v>
@@ -3817,14 +3844,14 @@
         <v>0</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
@@ -3843,14 +3870,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
@@ -3869,14 +3896,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
@@ -3895,14 +3922,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
@@ -3921,14 +3948,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
@@ -3947,14 +3974,14 @@
         <v>0</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
@@ -3973,14 +4000,14 @@
         <v>0</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
@@ -3999,14 +4026,14 @@
         <v>0</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
@@ -4399,14 +4426,14 @@
         <v>0</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
@@ -4425,14 +4452,14 @@
         <v>0</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
@@ -4463,14 +4490,14 @@
         <v>0</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
@@ -4489,14 +4516,14 @@
         <v>0</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
@@ -4515,14 +4542,14 @@
         <v>0</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
@@ -5025,14 +5052,14 @@
         <v>0</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
@@ -5051,14 +5078,14 @@
         <v>0</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
@@ -5089,14 +5116,14 @@
         <v>0</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
@@ -5643,14 +5670,14 @@
         <v>0</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
@@ -5733,16 +5760,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -5773,14 +5800,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -5799,14 +5826,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="38" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -5825,14 +5852,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="38" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -5851,14 +5878,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -5877,14 +5904,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="38" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -5903,14 +5930,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -5929,14 +5956,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="38" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -5955,14 +5982,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -5981,14 +6008,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -6007,14 +6034,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="20" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -6033,14 +6060,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -6059,14 +6086,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -6085,14 +6112,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -6111,14 +6138,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -6137,14 +6164,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -6163,14 +6190,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="20" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -6189,14 +6216,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -6215,14 +6242,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -6241,14 +6268,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -6267,14 +6294,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -6293,14 +6320,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -6319,14 +6346,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -6345,14 +6372,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -6371,14 +6398,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="20" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -6397,14 +6424,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="20" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -6423,14 +6450,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -6458,22 +6485,22 @@
         <v>0</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>0</v>
@@ -6494,14 +6521,14 @@
         <v>0</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>4</v>
@@ -6518,14 +6545,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="20" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>4</v>
@@ -6542,14 +6569,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="20" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>4</v>
@@ -6566,14 +6593,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>4</v>
@@ -6590,14 +6617,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>4</v>
@@ -6614,14 +6641,14 @@
         <v>0</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>4</v>
@@ -6638,14 +6665,14 @@
         <v>0</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>4</v>
@@ -6662,14 +6689,14 @@
         <v>0</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>4</v>
@@ -6686,14 +6713,14 @@
         <v>0</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>4</v>
@@ -6710,14 +6737,14 @@
         <v>0</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>4</v>
@@ -6734,14 +6761,14 @@
         <v>0</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>4</v>
@@ -6758,14 +6785,14 @@
         <v>0</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>4</v>
@@ -6782,14 +6809,14 @@
         <v>0</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>4</v>
@@ -6806,14 +6833,14 @@
         <v>0</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>4</v>
@@ -6830,14 +6857,14 @@
         <v>0</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>4</v>
@@ -6854,14 +6881,14 @@
         <v>0</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>4</v>
@@ -6878,14 +6905,14 @@
         <v>0</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>4</v>
@@ -6902,14 +6929,14 @@
         <v>0</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>4</v>
@@ -6926,14 +6953,14 @@
         <v>0</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>4</v>
@@ -6950,14 +6977,14 @@
         <v>0</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="20" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>4</v>
@@ -6974,14 +7001,14 @@
         <v>0</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="20" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>4</v>
@@ -6998,14 +7025,14 @@
         <v>0</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="20" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>4</v>
@@ -7022,14 +7049,14 @@
         <v>0</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>4</v>
@@ -7046,14 +7073,14 @@
         <v>0</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>4</v>
@@ -7070,14 +7097,14 @@
         <v>0</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>4</v>
@@ -7094,14 +7121,14 @@
         <v>0</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>4</v>
@@ -7128,22 +7155,22 @@
         <v>0</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>0</v>
@@ -7164,14 +7191,14 @@
         <v>0</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G64" s="16" t="s">
         <v>4</v>
@@ -7188,14 +7215,14 @@
         <v>0</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>4</v>
@@ -7212,14 +7239,14 @@
         <v>0</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>4</v>
@@ -7236,14 +7263,14 @@
         <v>0</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>4</v>
@@ -7260,14 +7287,14 @@
         <v>0</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="20" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>4</v>
@@ -7284,14 +7311,14 @@
         <v>0</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="20" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>4</v>
@@ -7308,14 +7335,14 @@
         <v>0</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>4</v>
@@ -7332,14 +7359,14 @@
         <v>0</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>4</v>
@@ -7356,14 +7383,14 @@
         <v>0</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>4</v>
@@ -7380,14 +7407,14 @@
         <v>0</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>4</v>
@@ -7404,14 +7431,14 @@
         <v>0</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G74" s="16" t="s">
         <v>4</v>
@@ -7428,14 +7455,14 @@
         <v>0</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>4</v>
@@ -7452,14 +7479,14 @@
         <v>0</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G76" s="16" t="s">
         <v>4</v>
@@ -7476,14 +7503,14 @@
         <v>0</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>4</v>
@@ -7500,14 +7527,14 @@
         <v>0</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>4</v>
@@ -7524,14 +7551,14 @@
         <v>0</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>4</v>
@@ -7548,14 +7575,14 @@
         <v>0</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>4</v>
@@ -7572,14 +7599,14 @@
         <v>0</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>4</v>
@@ -7596,14 +7623,14 @@
         <v>0</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>4</v>
@@ -7620,14 +7647,14 @@
         <v>0</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>4</v>
@@ -7644,14 +7671,14 @@
         <v>0</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="20" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>4</v>
@@ -7668,14 +7695,14 @@
         <v>0</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>4</v>
@@ -7692,14 +7719,14 @@
         <v>0</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>4</v>
@@ -7716,14 +7743,14 @@
         <v>0</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>4</v>
@@ -7740,14 +7767,14 @@
         <v>0</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>4</v>
@@ -7764,14 +7791,14 @@
         <v>0</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G89" s="23" t="s">
         <v>4</v>
@@ -7798,22 +7825,22 @@
         <v>0</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>0</v>
@@ -7834,14 +7861,14 @@
         <v>0</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>4</v>
@@ -7858,14 +7885,14 @@
         <v>0</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>4</v>
@@ -7882,14 +7909,14 @@
         <v>0</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>4</v>
@@ -7906,14 +7933,14 @@
         <v>0</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>4</v>
@@ -7930,14 +7957,14 @@
         <v>0</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>4</v>
@@ -7954,14 +7981,14 @@
         <v>0</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="20" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>4</v>
@@ -7978,14 +8005,14 @@
         <v>0</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D99" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>4</v>
@@ -8002,14 +8029,14 @@
         <v>0</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>4</v>
@@ -8026,14 +8053,14 @@
         <v>0</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>4</v>
@@ -8050,14 +8077,14 @@
         <v>0</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>4</v>
@@ -8074,14 +8101,14 @@
         <v>0</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>4</v>
@@ -8098,14 +8125,14 @@
         <v>0</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="20" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>4</v>
@@ -8122,14 +8149,14 @@
         <v>0</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>4</v>
@@ -8146,14 +8173,14 @@
         <v>0</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="20" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G106" s="16" t="s">
         <v>4</v>
@@ -8170,14 +8197,14 @@
         <v>0</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="20" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>4</v>
@@ -8194,14 +8221,14 @@
         <v>0</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="20" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>4</v>
@@ -8218,14 +8245,14 @@
         <v>0</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="20" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>4</v>
@@ -8242,14 +8269,14 @@
         <v>0</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="20" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>4</v>
@@ -8266,14 +8293,14 @@
         <v>0</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="20" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>4</v>
@@ -8290,14 +8317,14 @@
         <v>0</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="20" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>4</v>
@@ -8314,14 +8341,14 @@
         <v>0</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>4</v>
@@ -8338,14 +8365,14 @@
         <v>0</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="20" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>4</v>
@@ -8362,14 +8389,14 @@
         <v>0</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D115" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="20" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>4</v>
@@ -8386,14 +8413,14 @@
         <v>0</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>4</v>
@@ -8410,14 +8437,14 @@
         <v>0</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>4</v>
@@ -8434,14 +8461,14 @@
         <v>0</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D118" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="30" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>4</v>
@@ -8468,22 +8495,22 @@
         <v>0</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H120" s="41" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>0</v>
@@ -8504,14 +8531,14 @@
         <v>0</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>4</v>
@@ -8528,14 +8555,14 @@
         <v>0</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="20" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>4</v>
@@ -8552,14 +8579,14 @@
         <v>0</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="20" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>4</v>
@@ -8576,14 +8603,14 @@
         <v>0</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D125" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="20" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>4</v>
@@ -8600,14 +8627,14 @@
         <v>0</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="20" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>4</v>
@@ -8624,14 +8651,14 @@
         <v>0</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="20" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>4</v>
@@ -8648,14 +8675,14 @@
         <v>0</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="20" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>4</v>
@@ -8672,14 +8699,14 @@
         <v>0</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="20" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G129" s="16" t="s">
         <v>4</v>
@@ -8696,14 +8723,14 @@
         <v>0</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="20" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G130" s="16" t="s">
         <v>4</v>
@@ -8720,14 +8747,14 @@
         <v>0</v>
       </c>
       <c r="C131" s="42" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="20" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G131" s="16" t="s">
         <v>4</v>
@@ -8744,14 +8771,14 @@
         <v>0</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="20" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G132" s="16" t="s">
         <v>4</v>
@@ -8768,14 +8795,14 @@
         <v>0</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="20" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>4</v>
@@ -8792,14 +8819,14 @@
         <v>0</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="20" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G134" s="16" t="s">
         <v>4</v>
@@ -8816,14 +8843,14 @@
         <v>0</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="20" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G135" s="16" t="s">
         <v>4</v>
@@ -8840,14 +8867,14 @@
         <v>0</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="20" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G136" s="16" t="s">
         <v>4</v>
@@ -8864,14 +8891,14 @@
         <v>0</v>
       </c>
       <c r="C137" s="42" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="20" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G137" s="16" t="s">
         <v>4</v>
@@ -8888,14 +8915,14 @@
         <v>0</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G138" s="16" t="s">
         <v>4</v>
@@ -8912,14 +8939,14 @@
         <v>0</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>4</v>
@@ -8936,14 +8963,14 @@
         <v>0</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="20" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G140" s="16" t="s">
         <v>4</v>
@@ -8960,14 +8987,14 @@
         <v>0</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="20" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G141" s="16" t="s">
         <v>4</v>
@@ -8984,14 +9011,14 @@
         <v>0</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="20" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>4</v>
@@ -9008,14 +9035,14 @@
         <v>0</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="20" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G143" s="16" t="s">
         <v>4</v>
@@ -9032,14 +9059,14 @@
         <v>0</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="20" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G144" s="16" t="s">
         <v>4</v>
@@ -9056,14 +9083,14 @@
         <v>0</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="20" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>4</v>
@@ -9080,14 +9107,14 @@
         <v>0</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="20" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G146" s="16" t="s">
         <v>4</v>
@@ -9104,14 +9131,14 @@
         <v>0</v>
       </c>
       <c r="C147" s="43" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D147" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="30" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G147" s="23" t="s">
         <v>4</v>
@@ -9138,22 +9165,22 @@
         <v>0</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>0</v>
@@ -9174,14 +9201,14 @@
         <v>0</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="20" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>4</v>
@@ -9198,14 +9225,14 @@
         <v>0</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="20" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G152" s="16" t="s">
         <v>4</v>
@@ -9222,14 +9249,14 @@
         <v>0</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="20" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G153" s="16" t="s">
         <v>4</v>
@@ -9246,14 +9273,14 @@
         <v>0</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="20" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>4</v>
@@ -9270,14 +9297,14 @@
         <v>0</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="20" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G155" s="16" t="s">
         <v>4</v>
@@ -9294,14 +9321,14 @@
         <v>0</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="20" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G156" s="16" t="s">
         <v>4</v>
@@ -9318,14 +9345,14 @@
         <v>0</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="20" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>4</v>
@@ -9342,14 +9369,14 @@
         <v>0</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="20" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G158" s="16" t="s">
         <v>4</v>
@@ -9366,14 +9393,14 @@
         <v>0</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="20" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G159" s="16" t="s">
         <v>4</v>
@@ -9390,14 +9417,14 @@
         <v>0</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="20" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G160" s="16" t="s">
         <v>4</v>
@@ -9414,14 +9441,14 @@
         <v>0</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="20" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G161" s="16" t="s">
         <v>4</v>
@@ -9438,14 +9465,14 @@
         <v>0</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="20" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G162" s="16" t="s">
         <v>4</v>
@@ -9462,14 +9489,14 @@
         <v>0</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="20" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>4</v>
@@ -9486,14 +9513,14 @@
         <v>0</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="20" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G164" s="16" t="s">
         <v>4</v>
@@ -9510,14 +9537,14 @@
         <v>0</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="20" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G165" s="16" t="s">
         <v>4</v>
@@ -9534,14 +9561,14 @@
         <v>0</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="20" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G166" s="16" t="s">
         <v>4</v>
@@ -9558,14 +9585,14 @@
         <v>0</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="20" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G167" s="16" t="s">
         <v>4</v>
@@ -9582,14 +9609,14 @@
         <v>0</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="20" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G168" s="16" t="s">
         <v>4</v>
@@ -9606,14 +9633,14 @@
         <v>0</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>4</v>
@@ -9630,14 +9657,14 @@
         <v>0</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="20" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>4</v>
@@ -9654,14 +9681,14 @@
         <v>0</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="20" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>4</v>
@@ -9678,14 +9705,14 @@
         <v>0</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="20" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G172" s="16" t="s">
         <v>4</v>
@@ -9702,14 +9729,14 @@
         <v>0</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="20" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>4</v>
@@ -9726,14 +9753,14 @@
         <v>0</v>
       </c>
       <c r="C174" s="42" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="20" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G174" s="16" t="s">
         <v>4</v>
@@ -9750,14 +9777,14 @@
         <v>0</v>
       </c>
       <c r="C175" s="42" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G175" s="16" t="s">
         <v>4</v>
@@ -9774,14 +9801,14 @@
         <v>0</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D176" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E176" s="24"/>
       <c r="F176" s="30" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>4</v>
@@ -9808,22 +9835,22 @@
         <v>0</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I178" s="11" t="s">
         <v>0</v>
@@ -9844,14 +9871,14 @@
         <v>0</v>
       </c>
       <c r="C180" s="42" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="20" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>4</v>
@@ -9868,14 +9895,14 @@
         <v>0</v>
       </c>
       <c r="C181" s="42" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="20" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>4</v>
@@ -9892,14 +9919,14 @@
         <v>0</v>
       </c>
       <c r="C182" s="42" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="20" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>4</v>
@@ -9916,14 +9943,14 @@
         <v>0</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="20" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>4</v>
@@ -9940,14 +9967,14 @@
         <v>0</v>
       </c>
       <c r="C184" s="42" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="20" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G184" s="16" t="s">
         <v>4</v>
@@ -9964,14 +9991,14 @@
         <v>0</v>
       </c>
       <c r="C185" s="42" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="20" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G185" s="16" t="s">
         <v>4</v>
@@ -9988,14 +10015,14 @@
         <v>0</v>
       </c>
       <c r="C186" s="42" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="20" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G186" s="16" t="s">
         <v>4</v>
@@ -10012,14 +10039,14 @@
         <v>0</v>
       </c>
       <c r="C187" s="42" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="20" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G187" s="16" t="s">
         <v>4</v>
@@ -10036,14 +10063,14 @@
         <v>0</v>
       </c>
       <c r="C188" s="42" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="20" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G188" s="16" t="s">
         <v>4</v>
@@ -10060,14 +10087,14 @@
         <v>0</v>
       </c>
       <c r="C189" s="42" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="20" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G189" s="16" t="s">
         <v>4</v>
@@ -10084,14 +10111,14 @@
         <v>0</v>
       </c>
       <c r="C190" s="42" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="20" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="G190" s="16" t="s">
         <v>4</v>
@@ -10108,14 +10135,14 @@
         <v>0</v>
       </c>
       <c r="C191" s="42" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D191" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="20" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G191" s="16" t="s">
         <v>4</v>
@@ -10132,14 +10159,14 @@
         <v>0</v>
       </c>
       <c r="C192" s="42" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D192" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="20" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>4</v>
@@ -10156,14 +10183,14 @@
         <v>0</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="20" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G193" s="16" t="s">
         <v>4</v>
@@ -10180,14 +10207,14 @@
         <v>0</v>
       </c>
       <c r="C194" s="42" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D194" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="20" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>4</v>
@@ -10204,14 +10231,14 @@
         <v>0</v>
       </c>
       <c r="C195" s="42" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D195" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="20" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>4</v>
@@ -10228,14 +10255,14 @@
         <v>0</v>
       </c>
       <c r="C196" s="42" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D196" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="20" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>4</v>
@@ -10252,14 +10279,14 @@
         <v>0</v>
       </c>
       <c r="C197" s="42" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D197" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="20" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>4</v>
@@ -10276,14 +10303,14 @@
         <v>0</v>
       </c>
       <c r="C198" s="42" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D198" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="20" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G198" s="16" t="s">
         <v>4</v>
@@ -10300,14 +10327,14 @@
         <v>0</v>
       </c>
       <c r="C199" s="42" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="20" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>4</v>
@@ -10324,14 +10351,14 @@
         <v>0</v>
       </c>
       <c r="C200" s="42" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D200" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="20" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>4</v>
@@ -10348,14 +10375,14 @@
         <v>0</v>
       </c>
       <c r="C201" s="42" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="20" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>4</v>
@@ -10372,14 +10399,14 @@
         <v>0</v>
       </c>
       <c r="C202" s="42" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D202" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="20" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>4</v>
@@ -10396,14 +10423,14 @@
         <v>0</v>
       </c>
       <c r="C203" s="42" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D203" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="20" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>4</v>
@@ -10420,14 +10447,14 @@
         <v>0</v>
       </c>
       <c r="C204" s="42" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D204" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="20" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>4</v>
@@ -10444,14 +10471,14 @@
         <v>0</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D205" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E205" s="24"/>
       <c r="F205" s="30" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G205" s="23" t="s">
         <v>4</v>
@@ -10478,22 +10505,22 @@
         <v>0</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E207" s="28" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H207" s="41" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I207" s="11" t="s">
         <v>0</v>
@@ -10514,14 +10541,14 @@
         <v>0</v>
       </c>
       <c r="C209" s="42" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="20" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>4</v>
@@ -10538,14 +10565,14 @@
         <v>0</v>
       </c>
       <c r="C210" s="42" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="20" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>4</v>
@@ -10562,14 +10589,14 @@
         <v>0</v>
       </c>
       <c r="C211" s="42" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="20" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>4</v>
@@ -10586,14 +10613,14 @@
         <v>0</v>
       </c>
       <c r="C212" s="42" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="20" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G212" s="16" t="s">
         <v>4</v>
@@ -10610,14 +10637,14 @@
         <v>0</v>
       </c>
       <c r="C213" s="42" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D213" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="20" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G213" s="16" t="s">
         <v>4</v>
@@ -10634,14 +10661,14 @@
         <v>0</v>
       </c>
       <c r="C214" s="42" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="20" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>4</v>
@@ -10658,14 +10685,14 @@
         <v>0</v>
       </c>
       <c r="C215" s="42" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="20" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>4</v>
@@ -10682,14 +10709,14 @@
         <v>0</v>
       </c>
       <c r="C216" s="42" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D216" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="20" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>4</v>
@@ -10706,14 +10733,14 @@
         <v>0</v>
       </c>
       <c r="C217" s="42" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="20" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>4</v>
@@ -10730,14 +10757,14 @@
         <v>0</v>
       </c>
       <c r="C218" s="42" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="20" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>4</v>
@@ -10754,14 +10781,14 @@
         <v>0</v>
       </c>
       <c r="C219" s="42" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="20" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>4</v>
@@ -10778,14 +10805,14 @@
         <v>0</v>
       </c>
       <c r="C220" s="42" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="20" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>4</v>
@@ -10802,14 +10829,14 @@
         <v>0</v>
       </c>
       <c r="C221" s="42" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="20" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>4</v>
@@ -10826,14 +10853,14 @@
         <v>0</v>
       </c>
       <c r="C222" s="42" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="20" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>4</v>
@@ -10850,14 +10877,14 @@
         <v>0</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="20" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>4</v>
@@ -10874,14 +10901,14 @@
         <v>0</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="20" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G224" s="16" t="s">
         <v>4</v>
@@ -10898,14 +10925,14 @@
         <v>0</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="20" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>4</v>
@@ -10922,14 +10949,14 @@
         <v>0</v>
       </c>
       <c r="C226" s="42" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D226" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="20" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>4</v>
@@ -10946,14 +10973,14 @@
         <v>0</v>
       </c>
       <c r="C227" s="42" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D227" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="20" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>4</v>
@@ -10970,14 +10997,14 @@
         <v>0</v>
       </c>
       <c r="C228" s="42" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D228" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="20" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>4</v>
@@ -10994,14 +11021,14 @@
         <v>0</v>
       </c>
       <c r="C229" s="42" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D229" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="20" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>4</v>
@@ -11018,14 +11045,14 @@
         <v>0</v>
       </c>
       <c r="C230" s="42" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="20" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>4</v>
@@ -11042,14 +11069,14 @@
         <v>0</v>
       </c>
       <c r="C231" s="42" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E231" s="3"/>
       <c r="F231" s="20" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G231" s="16" t="s">
         <v>4</v>
@@ -11066,14 +11093,14 @@
         <v>0</v>
       </c>
       <c r="C232" s="42" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D232" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="20" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>4</v>
@@ -11090,14 +11117,14 @@
         <v>0</v>
       </c>
       <c r="C233" s="42" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="20" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>4</v>
@@ -11114,14 +11141,14 @@
         <v>0</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E234" s="24"/>
       <c r="F234" s="30" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G234" s="23" t="s">
         <v>4</v>
@@ -11148,22 +11175,22 @@
         <v>0</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D236" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F236" s="35" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H236" s="41" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="I236" s="11" t="s">
         <v>0</v>
@@ -11184,14 +11211,14 @@
         <v>0</v>
       </c>
       <c r="C238" s="42" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D238" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="20" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>4</v>
@@ -11208,14 +11235,14 @@
         <v>0</v>
       </c>
       <c r="C239" s="42" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D239" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="20" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>4</v>
@@ -11232,14 +11259,14 @@
         <v>0</v>
       </c>
       <c r="C240" s="42" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D240" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="20" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>4</v>
@@ -11256,14 +11283,14 @@
         <v>0</v>
       </c>
       <c r="C241" s="42" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D241" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="20" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>4</v>
@@ -11280,14 +11307,14 @@
         <v>0</v>
       </c>
       <c r="C242" s="42" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D242" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="20" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>4</v>
@@ -11304,14 +11331,14 @@
         <v>0</v>
       </c>
       <c r="C243" s="42" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D243" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="20" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G243" s="16" t="s">
         <v>4</v>
@@ -11328,14 +11355,14 @@
         <v>0</v>
       </c>
       <c r="C244" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D244" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="20" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G244" s="16" t="s">
         <v>4</v>
@@ -11352,14 +11379,14 @@
         <v>0</v>
       </c>
       <c r="C245" s="42" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D245" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="3"/>
       <c r="F245" s="20" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G245" s="16" t="s">
         <v>4</v>
@@ -11376,14 +11403,14 @@
         <v>0</v>
       </c>
       <c r="C246" s="42" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D246" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="20" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G246" s="16" t="s">
         <v>4</v>
@@ -11400,14 +11427,14 @@
         <v>0</v>
       </c>
       <c r="C247" s="42" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D247" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="20" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>4</v>
@@ -11424,14 +11451,14 @@
         <v>0</v>
       </c>
       <c r="C248" s="42" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D248" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="20" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G248" s="16" t="s">
         <v>4</v>
@@ -11448,14 +11475,14 @@
         <v>0</v>
       </c>
       <c r="C249" s="42" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D249" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="20" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G249" s="16" t="s">
         <v>4</v>
@@ -11472,14 +11499,14 @@
         <v>0</v>
       </c>
       <c r="C250" s="42" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D250" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="20" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G250" s="16" t="s">
         <v>4</v>
@@ -11496,14 +11523,14 @@
         <v>0</v>
       </c>
       <c r="C251" s="42" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D251" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="20" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G251" s="16" t="s">
         <v>4</v>
@@ -11520,14 +11547,14 @@
         <v>0</v>
       </c>
       <c r="C252" s="42" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D252" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="20" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G252" s="16" t="s">
         <v>4</v>
@@ -11544,14 +11571,14 @@
         <v>0</v>
       </c>
       <c r="C253" s="42" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D253" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="20" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>4</v>
@@ -11568,14 +11595,14 @@
         <v>0</v>
       </c>
       <c r="C254" s="42" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D254" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="20" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G254" s="16" t="s">
         <v>4</v>
@@ -11592,14 +11619,14 @@
         <v>0</v>
       </c>
       <c r="C255" s="42" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D255" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G255" s="16" t="s">
         <v>4</v>
@@ -11616,14 +11643,14 @@
         <v>0</v>
       </c>
       <c r="C256" s="42" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D256" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="20" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G256" s="16" t="s">
         <v>4</v>
@@ -11640,14 +11667,14 @@
         <v>0</v>
       </c>
       <c r="C257" s="42" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D257" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="20" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G257" s="16" t="s">
         <v>4</v>
@@ -11664,14 +11691,14 @@
         <v>0</v>
       </c>
       <c r="C258" s="42" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D258" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="20" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="G258" s="16" t="s">
         <v>4</v>
@@ -11688,14 +11715,14 @@
         <v>0</v>
       </c>
       <c r="C259" s="42" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D259" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="20" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="G259" s="16" t="s">
         <v>4</v>
@@ -11712,14 +11739,14 @@
         <v>0</v>
       </c>
       <c r="C260" s="42" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D260" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="20" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G260" s="16" t="s">
         <v>4</v>
@@ -11736,14 +11763,14 @@
         <v>0</v>
       </c>
       <c r="C261" s="42" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D261" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="20" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G261" s="16" t="s">
         <v>4</v>
@@ -11760,14 +11787,14 @@
         <v>0</v>
       </c>
       <c r="C262" s="42" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D262" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="20" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G262" s="16" t="s">
         <v>4</v>
@@ -11784,14 +11811,14 @@
         <v>0</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D263" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E263" s="24"/>
       <c r="F263" s="30" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G263" s="23" t="s">
         <v>4</v>
@@ -11870,14 +11897,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -11908,14 +11935,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>4</v>
@@ -11934,14 +11961,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>4</v>
@@ -11960,14 +11987,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>4</v>
@@ -11986,14 +12013,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>4</v>
@@ -12012,14 +12039,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>4</v>
@@ -12038,14 +12065,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>4</v>
@@ -12064,14 +12091,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="17" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>4</v>
@@ -12090,14 +12117,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="17" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>4</v>
@@ -12116,14 +12143,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="17" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>4</v>
@@ -12142,14 +12169,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="17" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>4</v>
@@ -12168,14 +12195,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="17" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>4</v>
@@ -12194,14 +12221,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="17" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>4</v>
@@ -12220,14 +12247,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="17" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>4</v>
@@ -12246,14 +12273,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="17" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -12272,14 +12299,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="17" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>4</v>
@@ -12298,14 +12325,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="17" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>4</v>
@@ -12324,14 +12351,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="17" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>4</v>
@@ -12350,14 +12377,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="17" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>4</v>
@@ -12376,14 +12403,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="17" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -12402,14 +12429,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="17" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>4</v>
@@ -12428,14 +12455,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="17" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>4</v>
@@ -12454,14 +12481,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="17" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>4</v>
@@ -12480,14 +12507,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>4</v>
@@ -12506,14 +12533,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>4</v>
@@ -12532,14 +12559,14 @@
         <v>0</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="17" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>4</v>
@@ -12558,14 +12585,14 @@
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>4</v>
@@ -12623,14 +12650,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
@@ -13272,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -13919,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
@@ -14566,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>

--- a/dev.bitstationary/-a/-a.xlsx
+++ b/dev.bitstationary/-a/-a.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="651">
   <si>
     <t>-</t>
   </si>
@@ -218,6 +218,9 @@
     <t>Power</t>
   </si>
   <si>
+    <t>A#3</t>
+  </si>
+  <si>
     <t>range.on</t>
   </si>
   <si>
@@ -275,6 +278,9 @@
     <t>Degree</t>
   </si>
   <si>
+    <t>B#2</t>
+  </si>
+  <si>
     <t>f.x</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
     <t>Mode</t>
   </si>
   <si>
+    <t>C#3</t>
+  </si>
+  <si>
     <t>recycle.it</t>
   </si>
   <si>
@@ -485,9 +494,6 @@
     <t>Syntax</t>
   </si>
   <si>
-    <t>A#3</t>
-  </si>
-  <si>
     <t>_bean</t>
   </si>
   <si>
@@ -650,9 +656,6 @@
     <t>Script</t>
   </si>
   <si>
-    <t>B#2</t>
-  </si>
-  <si>
     <t>_deep</t>
   </si>
   <si>
@@ -812,9 +815,6 @@
     <t>Torrent</t>
   </si>
   <si>
-    <t>C#3</t>
-  </si>
-  <si>
     <t>_new</t>
   </si>
   <si>
@@ -1958,10 +1958,19 @@
     <t>shAllow38</t>
   </si>
   <si>
+    <t>Manage</t>
+  </si>
+  <si>
     <t>decEnter27</t>
   </si>
   <si>
+    <t>Content</t>
+  </si>
+  <si>
     <t>sciLetter34</t>
+  </si>
+  <si>
+    <t>Compound</t>
   </si>
 </sst>
 </file>
@@ -3263,7 +3272,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3931,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>0</v>
@@ -3956,14 +3965,14 @@
         <v>0</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>0</v>
@@ -3982,14 +3991,14 @@
         <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>0</v>
@@ -4008,14 +4017,14 @@
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>0</v>
@@ -4034,14 +4043,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>0</v>
@@ -4060,14 +4069,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>0</v>
@@ -4086,14 +4095,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>0</v>
@@ -4112,14 +4121,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>0</v>
@@ -4138,14 +4147,14 @@
         <v>0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>0</v>
@@ -4538,14 +4547,14 @@
         <v>0</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>0</v>
@@ -4571,13 +4580,13 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>0</v>
@@ -4602,14 +4611,14 @@
         <v>0</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>0</v>
@@ -4628,14 +4637,14 @@
         <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>0</v>
@@ -4654,14 +4663,14 @@
         <v>0</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>0</v>
@@ -5164,14 +5173,14 @@
         <v>0</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>0</v>
@@ -5197,13 +5206,13 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>0</v>
@@ -5228,14 +5237,14 @@
         <v>0</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>0</v>
@@ -5782,14 +5791,14 @@
         <v>0</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>0</v>
@@ -5846,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
@@ -5886,14 +5895,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>0</v>
@@ -5912,14 +5921,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -5938,14 +5947,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>0</v>
@@ -5964,14 +5973,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>0</v>
@@ -5990,14 +5999,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>0</v>
@@ -6016,14 +6025,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>0</v>
@@ -6042,14 +6051,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>0</v>
@@ -6068,14 +6077,14 @@
         <v>0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>0</v>
@@ -6094,14 +6103,14 @@
         <v>0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>0</v>
@@ -6120,14 +6129,14 @@
         <v>0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>0</v>
@@ -6146,14 +6155,14 @@
         <v>0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>0</v>
@@ -6172,14 +6181,14 @@
         <v>0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>0</v>
@@ -6198,14 +6207,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>0</v>
@@ -6224,14 +6233,14 @@
         <v>0</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>0</v>
@@ -6250,14 +6259,14 @@
         <v>0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>0</v>
@@ -6276,14 +6285,14 @@
         <v>0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>0</v>
@@ -6302,14 +6311,14 @@
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>0</v>
@@ -6328,14 +6337,14 @@
         <v>0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>0</v>
@@ -6354,14 +6363,14 @@
         <v>0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>0</v>
@@ -6380,14 +6389,14 @@
         <v>0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>0</v>
@@ -6406,14 +6415,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>0</v>
@@ -6432,14 +6441,14 @@
         <v>0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>0</v>
@@ -6458,14 +6467,14 @@
         <v>0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>0</v>
@@ -6484,14 +6493,14 @@
         <v>0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>0</v>
@@ -6510,14 +6519,14 @@
         <v>0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>0</v>
@@ -6536,14 +6545,14 @@
         <v>0</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>0</v>
@@ -6572,22 +6581,22 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>0</v>
@@ -6612,14 +6621,14 @@
         <v>0</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>0</v>
@@ -6638,14 +6647,14 @@
         <v>0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>0</v>
@@ -6664,14 +6673,14 @@
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>0</v>
@@ -6690,14 +6699,14 @@
         <v>0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>0</v>
@@ -6716,14 +6725,14 @@
         <v>0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>0</v>
@@ -6742,14 +6751,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>0</v>
@@ -6768,14 +6777,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G39" s="19" t="s">
         <v>0</v>
@@ -6794,14 +6803,14 @@
         <v>0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G40" s="19" t="s">
         <v>0</v>
@@ -6820,14 +6829,14 @@
         <v>0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>0</v>
@@ -6846,14 +6855,14 @@
         <v>0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>0</v>
@@ -6872,14 +6881,14 @@
         <v>0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>0</v>
@@ -6898,14 +6907,14 @@
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>0</v>
@@ -6924,14 +6933,14 @@
         <v>0</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>0</v>
@@ -6950,14 +6959,14 @@
         <v>0</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>0</v>
@@ -6976,14 +6985,14 @@
         <v>0</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>0</v>
@@ -7002,14 +7011,14 @@
         <v>0</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>0</v>
@@ -7028,14 +7037,14 @@
         <v>0</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>0</v>
@@ -7054,14 +7063,14 @@
         <v>0</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>0</v>
@@ -7080,14 +7089,14 @@
         <v>0</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>0</v>
@@ -7106,14 +7115,14 @@
         <v>0</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G52" s="19" t="s">
         <v>0</v>
@@ -7132,14 +7141,14 @@
         <v>0</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>0</v>
@@ -7158,14 +7167,14 @@
         <v>0</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>0</v>
@@ -7184,14 +7193,14 @@
         <v>0</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>0</v>
@@ -7210,14 +7219,14 @@
         <v>0</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>0</v>
@@ -7236,14 +7245,14 @@
         <v>0</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>0</v>
@@ -7262,14 +7271,14 @@
         <v>0</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>0</v>
@@ -7298,22 +7307,22 @@
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>0</v>
@@ -7338,14 +7347,14 @@
         <v>0</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>0</v>
@@ -7364,14 +7373,14 @@
         <v>0</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>0</v>
@@ -7390,14 +7399,14 @@
         <v>0</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>0</v>
@@ -7416,14 +7425,14 @@
         <v>0</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>0</v>
@@ -7442,14 +7451,14 @@
         <v>0</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>0</v>
@@ -7468,14 +7477,14 @@
         <v>0</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>0</v>
@@ -7494,14 +7503,14 @@
         <v>0</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>0</v>
@@ -7520,14 +7529,14 @@
         <v>0</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>0</v>
@@ -7546,14 +7555,14 @@
         <v>0</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>0</v>
@@ -7572,14 +7581,14 @@
         <v>0</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G71" s="19" t="s">
         <v>0</v>
@@ -7598,14 +7607,14 @@
         <v>0</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>0</v>
@@ -7624,14 +7633,14 @@
         <v>0</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>0</v>
@@ -7650,14 +7659,14 @@
         <v>0</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>0</v>
@@ -7676,14 +7685,14 @@
         <v>0</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>0</v>
@@ -7702,14 +7711,14 @@
         <v>0</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>0</v>
@@ -7728,14 +7737,14 @@
         <v>0</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>0</v>
@@ -7754,14 +7763,14 @@
         <v>0</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>0</v>
@@ -7780,14 +7789,14 @@
         <v>0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>0</v>
@@ -7806,14 +7815,14 @@
         <v>0</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>0</v>
@@ -7832,14 +7841,14 @@
         <v>0</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>0</v>
@@ -7858,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>2</v>
@@ -7884,14 +7893,14 @@
         <v>0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>0</v>
@@ -7910,14 +7919,14 @@
         <v>0</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>0</v>
@@ -7936,14 +7945,14 @@
         <v>0</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>0</v>
@@ -7962,14 +7971,14 @@
         <v>0</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G86" s="19" t="s">
         <v>0</v>
@@ -7988,14 +7997,14 @@
         <v>0</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>0</v>
@@ -8024,22 +8033,22 @@
         <v>0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>0</v>
@@ -8750,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>2</v>
@@ -9476,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>2</v>
@@ -10202,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>2</v>
@@ -10928,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>2</v>
@@ -11654,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>2</v>
@@ -13785,7 +13794,9 @@
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>646</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
@@ -14412,13 +14423,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>648</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15045,13 +15058,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>650</v>
+      </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
       </c>
